--- a/data/layer1_output/compliance_results.xlsx
+++ b/data/layer1_output/compliance_results.xlsx
@@ -437,7 +437,7 @@
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
@@ -613,27 +613,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>61.00%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003, R004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003 (high): "It's still your responsibility to pay. You should have thought about that before..." (similarity: 0.61); R004 (medium): "I understand your frustration, but you still owe that amount. If you don’t pay s..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>77.00%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>85.00%</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>R001 (critical): "I understand, but you really need to pay this now. If you don’t, we might have t..." (similarity: 0.65)</t>
+          <t>R001 (critical): "I understand, but you really need to pay this now. If you don’t, we might have t..." (similarity: 0.65); R004 (medium): "I understand, but you really need to pay this now. If you don’t, we might have t..." (similarity: 0.67)</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R001 (critical): "I understand that, but you really need to pay something. If you don’t, we might ..." (similarity: 0.63)</t>
+          <t>R001 (critical): "I understand that, but you really need to pay something. If you don’t, we might ..." (similarity: 0.63); R004 (medium): "Look, this is serious. If you don’t pay soon, we'll have no choice but to file i..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -1133,27 +1133,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R002, R004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Well, you signed a contract, so you have to follow through. If you don't pay soo..." (similarity: 0.61); R002 (critical): "That's unfortunate, but look, you need to understand that payment is expected. I..." (similarity: 0.62); R004 (medium): "Well, you signed a contract, so you have to follow through. If you don't pay soo..." (similarity: 0.68)</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R004</t>
+          <t>R002, R004</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>R004 (medium): "I understand that, but you really need to resolve this. We can't just keep waiti..." (similarity: 0.76)</t>
+          <t>R002 (critical): "It's your responsibility to pay the debt. If it goes to court, it'll only get wo..." (similarity: 0.60); R004 (medium): "I understand that, but you really need to resolve this. We can't just keep waiti..." (similarity: 0.76)</t>
         </is>
       </c>
     </row>
@@ -1253,27 +1253,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "We don't have payment plans for cases like yours. Either pay the full amount imm..." (similarity: 0.62); R004 (medium): "We don't have payment plans for cases like yours. Either pay the full amount imm..." (similarity: 0.70)</t>
         </is>
       </c>
     </row>
@@ -1293,27 +1293,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003, R004</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003 (high): "Honestly, if you don’t pay today, we’re going to have to report this to your emp..." (similarity: 0.61); R004 (medium): "That’s unfortunate, but you really need to sort this out quickly. Our next step ..." (similarity: 0.70)</t>
         </is>
       </c>
     </row>
@@ -1453,27 +1453,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I understand that, but you need to pay this off quickly. If you don't, we might ..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -1493,27 +1493,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>62.00%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Time is not going to help you. You have to pay something today, otherwise, we wi..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -1813,27 +1813,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "That's not our concern. You need to pay this debt or we’ll have to escalate it a..." (similarity: 0.70)</t>
         </is>
       </c>
     </row>
@@ -2103,17 +2103,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R003</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>R001 (critical): "Honestly, if you don’t pay us by the end of this week, we might have to take leg..." (similarity: 0.65)</t>
+          <t>R001 (critical): "Honestly, if you don’t pay us by the end of this week, we might have to take leg..." (similarity: 0.65); R003 (high): "Well, you signed a contract, and I don't see why you can't just pay us what you ..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -2133,27 +2133,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That's unfortunate, but you really need to prioritize your payments. We're going..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -2543,17 +2543,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>R001 (critical): "That's unfortunate, but you have to understand that if this isn't paid soon, we ..." (similarity: 0.66)</t>
+          <t>R001 (critical): "That's unfortunate, but you have to understand that if this isn't paid soon, we ..." (similarity: 0.66); R004 (medium): "That's unfortunate, but you have to understand that if this isn't paid soon, we ..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -2653,27 +2653,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Honestly, at this point, you really should be making the full payment immediatel..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -2938,22 +2938,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>76.00%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>R001 (critical): "That's unfortunate, but you still need to pay the full amount. If you don’t, we ..." (similarity: 0.62)</t>
+          <t>R001 (critical): "That's unfortunate, but you still need to pay the full amount. If you don’t, we ..." (similarity: 0.62); R004 (medium): "That's unfortunate, but you still need to pay the full amount. If you don’t, we ..." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -3063,17 +3063,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>R001 (critical): "Look, you signed up for this. If you don’t pay soon, we’ll have no choice but to..." (similarity: 0.67)</t>
+          <t>R001 (critical): "Look, you signed up for this. If you don’t pay soon, we’ll have no choice but to..." (similarity: 0.67); R004 (medium): "Look, you signed up for this. If you don’t pay soon, we’ll have no choice but to..." (similarity: 0.67)</t>
         </is>
       </c>
     </row>
@@ -3213,27 +3213,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That’s unfortunate, but you really need to make a payment by the end of this wee..." (similarity: 0.64)</t>
         </is>
       </c>
     </row>
@@ -3413,27 +3413,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>67.00%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Well, we can't just wait forever. If you don’t pay today, we might have to escal..." (similarity: 0.67)</t>
         </is>
       </c>
     </row>
@@ -3453,27 +3453,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I understand that, but we need you to pay this soon, or I have to refer your acc..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -3533,27 +3533,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>62.00%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That’s unfortunate, but you really need to get this handled. If you don’t pay by..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -3573,27 +3573,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003, R004</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003 (high): "Well, that's unfortunate, but you owe this money. If you don’t pay up soon, I’ll..." (similarity: 0.62); R004 (medium): "Well, that's unfortunate, but you owe this money. If you don’t pay up soon, I’ll..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -3693,27 +3693,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>66.00%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Honestly, we need full payment immediately. If you don’t make a move today, I ca..." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -3778,22 +3778,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>76.00%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R003, R004</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>R001 (critical): "Look, if you don’t pay this immediately, we will have to take legal action. You ..." (similarity: 0.62)</t>
+          <t>R001 (critical): "Look, if you don’t pay this immediately, we will have to take legal action. You ..." (similarity: 0.62); R003 (high): "That's unfortunate, but you really need to take care of this now or else we'll h..." (similarity: 0.64); R004 (medium): "Look, if you don’t pay this immediately, we will have to take legal action. You ..." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -3853,27 +3853,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>63.00%</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I'm just saying the situation is serious, and we can't keep waiting forever. You..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -4023,17 +4023,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>R001 (critical): "Honestly, if we don’t receive payment soon, we might have no choice but to take ..." (similarity: 0.65)</t>
+          <t>R001 (critical): "Honestly, if we don’t receive payment soon, we might have no choice but to take ..." (similarity: 0.65); R004 (medium): "Honestly, if we don’t receive payment soon, we might have no choice but to take ..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -4093,27 +4093,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That's not my concern. You need to find a way to make the payment immediately to..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -4173,27 +4173,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R005</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R005 (high): "Listen, you need to take this seriously. If I were you, I’d think about how this..." (similarity: 0.64)</t>
         </is>
       </c>
     </row>
@@ -4333,27 +4333,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>61.00%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "I understand that, but you know, if you don’t pay this debt soon, we might have ..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -4533,27 +4533,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That’s unfortunate, but you really need to pay this off right away. If you don’t..." (similarity: 0.68)</t>
         </is>
       </c>
     </row>
@@ -4613,27 +4613,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Well, if you don’t pay, we can’t avoid sending this to our legal team. It's impo..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -4853,27 +4853,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>66.00%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I get that, but you really need to settle this. We're not going to wait forever...." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -5133,27 +5133,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Honestly, you need to do better. Pay the full amount immediately or face the con..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -5293,27 +5293,27 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>79.00%</t>
+          <t>62.00%</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Of course! I’ll make a note of that and send you a confirmation email for the pa..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -5333,27 +5333,27 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>62.00%</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Look, that's not really my concern. You need to make a payment. If you don’t pay..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -5458,22 +5458,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>83.00%</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>R001 (critical): "Look, if you don’t pay right away, we could end up taking legal action. It's bet..." (similarity: 0.63)</t>
+          <t>R001 (critical): "Look, if you don’t pay right away, we could end up taking legal action. It's bet..." (similarity: 0.63); R004 (medium): "Look, if you don’t pay right away, we could end up taking legal action. It's bet..." (similarity: 0.73)</t>
         </is>
       </c>
     </row>
@@ -5653,27 +5653,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>62.00%</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "We really need to see payment now. Otherwise, your account will go to our legal ..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -5693,27 +5693,27 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>66.00%</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004, R005</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That’s unfortunate to hear, but we’ll be taking legal action if this isn’t settl..." (similarity: 0.66); R005 (high): "Honestly, it doesn’t matter to us. You need to pay up, or we’ll be forced to esc..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -5813,27 +5813,27 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>73.00%</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "I'm not sure how you expect to avoid this debt. You need to pay us back or we mi..." (similarity: 0.73)</t>
         </is>
       </c>
     </row>
@@ -5893,27 +5893,27 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "Well, you should've thought about that before you racked up this debt. If you do..." (similarity: 0.70)</t>
         </is>
       </c>
     </row>
@@ -6173,27 +6173,27 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R005</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R005 (high): "Honestly, your options are limited. Pay in full now or face serious consequences..." (similarity: 0.64)</t>
         </is>
       </c>
     </row>
@@ -6213,27 +6213,27 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That’s unfortunate, but you really need to pay this. If you don’t settle this by..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -6373,27 +6373,27 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>67.00%</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "I understand your situation, but you need to figure it out quickly. Otherwise, I..." (similarity: 0.67)</t>
         </is>
       </c>
     </row>
@@ -6493,27 +6493,27 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>71.00%</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R004, R005</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "I understand that, but this is serious. If you don't pay, we will ruin your cred..." (similarity: 0.60); R004 (medium): "That's unfortunate, but we need payment immediately or we will be forced to take..." (similarity: 0.71); R005 (high): "I understand that, but this is serious. If you don't pay, we will ruin your cred..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -6583,17 +6583,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>R005</t>
+          <t>R004, R005</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>R005 (high): "Honestly, I think it’s best if you just pay it all right away. Otherwise, your c..." (similarity: 0.66)</t>
+          <t>R004 (medium): "I get that, but we don’t have time for that. It’s either pay now or face the con..." (similarity: 0.62); R005 (high): "Honestly, I think it’s best if you just pay it all right away. Otherwise, your c..." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -6693,27 +6693,27 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>61.00%</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>75.00%</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>70.00%</t>
-        </is>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I get that, but you need to pay this amount. We can’t just let things slide. If ..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -6813,27 +6813,27 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>61.00%</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "That's unfortunate, but I need to remind you that if you don’t pay by the end of..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -6853,27 +6853,27 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Listen, you need to handle this quickly. If you don’t pay soon, we could proceed..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -6933,27 +6933,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>61.00%</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I appreciate that, but we really need you to make a payment on this. If you don’..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -7303,17 +7303,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R003, R004</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>R001 (critical): "That's unfortunate, but honestly, you signed a contract. If you don’t pay, we’ll..." (similarity: 0.67)</t>
+          <t>R001 (critical): "That's unfortunate, but honestly, you signed a contract. If you don’t pay, we’ll..." (similarity: 0.67); R003 (high): "That's unfortunate, but honestly, you signed a contract. If you don’t pay, we’ll..." (similarity: 0.61); R004 (medium): "Honestly, a payment plan won’t do much good at this point. We need the full amou..." (similarity: 0.62)</t>
         </is>
       </c>
     </row>
@@ -7333,27 +7333,27 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R002, R004</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Well, you need to understand that if you don't pay soon, we might have to take m..." (similarity: 0.61); R002 (critical): "I get that, but you're still responsible for this debt. Ignoring this won't make..." (similarity: 0.63); R004 (medium): "Well, you need to understand that if you don't pay soon, we might have to take m..." (similarity: 0.68)</t>
         </is>
       </c>
     </row>
@@ -7373,27 +7373,27 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>69.00%</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R005</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Honestly, if you don’t pay something right now, we’ll have to report this and it..." (similarity: 0.61); R005 (high): "Honestly, if you don’t pay something right now, we’ll have to report this and it..." (similarity: 0.69)</t>
         </is>
       </c>
     </row>
@@ -7493,27 +7493,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002, R004</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "I understand that it's tough, but you need to pay this debt. If we don’t get thi..." (similarity: 0.68); R004 (medium): "Look, you’re almost 60 days overdue. We can’t keep waiting. If you don't pay the..." (similarity: 0.61)</t>
         </is>
       </c>
     </row>
@@ -7573,27 +7573,27 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>72.00%</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003, R004, R005</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R003 (high): "That's unfortunate, but you really should have thought about that before skippin..." (similarity: 0.61); R004 (medium): "That's unfortunate, but you really should have thought about that before skippin..." (similarity: 0.66); R005 (high): "Honestly, you're looking at serious consequences if this isn't taken care of soo..." (similarity: 0.72)</t>
         </is>
       </c>
     </row>
@@ -8053,27 +8053,27 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>66.00%</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Well, that's not really our concern. You’re required to pay. If you don’t, we’ll..." (similarity: 0.63); R004 (medium): "Time is up, and we can't wait. You need to make a full payment now or face legal..." (similarity: 0.66)</t>
         </is>
       </c>
     </row>
@@ -8133,27 +8133,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>63.00%</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>85.00%</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001 (critical): "Look, I get it, but you signed the contract. If you don’t pay, we could just rep..." (similarity: 0.63)</t>
         </is>
       </c>
     </row>
@@ -8183,17 +8183,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>85.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>R001</t>
+          <t>R001, R004</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>R001 (critical): "That’s unfortunate, but you still need to pay us. If you don’t pay by the end of..." (similarity: 0.66)</t>
+          <t>R001 (critical): "That’s unfortunate, but you still need to pay us. If you don’t pay by the end of..." (similarity: 0.66); R004 (medium): "That’s unfortunate, but you still need to pay us. If you don’t pay by the end of..." (similarity: 0.65)</t>
         </is>
       </c>
     </row>
@@ -8253,27 +8253,27 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Look, if you don’t pay up immediately, your credit will tank and you’ll be facin..." (similarity: 0.60)</t>
         </is>
       </c>
     </row>
@@ -8293,27 +8293,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>77.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I completely understand. We want to work with you during this time. Would you be..." (similarity: 0.60)</t>
         </is>
       </c>
     </row>
@@ -8333,27 +8333,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>74.00%</t>
+          <t>67.00%</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "I understand, but you really need to pay up immediately. If not, we’ll have to e..." (similarity: 0.67)</t>
         </is>
       </c>
     </row>
@@ -8373,27 +8373,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>71.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002, R004</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R002 (critical): "Time's not on your side. You need to commit to paying this debt now, or face the..." (similarity: 0.64); R004 (medium): "Well, you need to pay this off, or we'll have to take serious action. You can't ..." (similarity: 0.64)</t>
         </is>
       </c>
     </row>
@@ -8413,27 +8413,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>73.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R004 (medium): "Well, you could have avoided this situation by paying on time. We are just follo..." (similarity: 0.64)</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>R004</t>
+          <t>R003, R004</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>R004 (medium): "I can't help you with that. If you don't pay immediately, we're going to report ..." (similarity: 0.72)</t>
+          <t>R003 (high): "I can't help you with that. If you don't pay immediately, we're going to report ..." (similarity: 0.61); R004 (medium): "I can't help you with that. If you don't pay immediately, we're going to report ..." (similarity: 0.72)</t>
         </is>
       </c>
     </row>

--- a/data/layer1_output/compliance_results.xlsx
+++ b/data/layer1_output/compliance_results.xlsx
@@ -436,10 +436,10 @@
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="44" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="60" customWidth="1" min="9" max="9"/>
   </cols>
@@ -462,7 +462,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Severity Confidence</t>
+          <t>Severity Score</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -499,17 +499,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Sarah from the collections department. I wanted to discuss you..." (score: 0.502); CRITICAL: "I'm sorry to hear that. It sounds tough. To get this sorted, it would be great i..." (score: 0.347); CRITICAL: "I understand that, but we do need to address this before it gets more complicate..." (score: 0.505); CRITICAL: "I get that, but it’s really important that we make progress on this. Can you at ..." (score: 0.349)</t>
         </is>
       </c>
     </row>
@@ -544,17 +544,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.487</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Jessica from the collections department. We're reaching out about yo..." (score: 0.487); CRITICAL: "I understand that things can be tough, but we really need to get this payment ta..." (score: 0.617); CRITICAL: "Honestly, it's best if you just pay the full amount right now to avoid further i..." (score: 0.546); CRITICAL: "I really can't stress enough how urgent this is. Please consider making a paymen..." (score: 0.655, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -589,17 +589,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.520</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hey there, it's about that $1,200 you owe us. You're really gonna regret ignorin..." (score: 0.520); CRITICAL: "Struggling or not, you made a promise, and ignoring your debts won’t make them d..." (score: 0.516); CRITICAL: "Well, you better find work fast, because if you don’t pay up soon, your credit's..." (score: 0.464); CRITICAL: "You want a payment plan? You should have thought about that before racking up th..." (score: 0.473)</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen, you're over 60 days late on that $1,250 bill. What were you thinking? Yo..." (score: 0.485); CRITICAL: "That's not my concern. You signed a contract, and now you're just trying to weas..." (score: 0.478); CRITICAL: "Work something out? You think I care about your sob story? This is business. You..." (score: 0.370); CRITICAL: "Time? You think you can just sit around and expect people to feel sorry for you?..." (score: 0.342)</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.510</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -704,15 +704,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MEDIUM: "That's not an excuse for non-payment. You should've planned better. If this isn'..." (violation_sim: 0.600, severity_gap: 0.093); MEDIUM: "A payment plan won’t help if you don’t even commit to a lump sum now. If you don..." (violation_sim: 0.568, severity_gap: 0.126)</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections department. I'm reaching out about your ou..." (score: 0.510); CRITICAL: "I'm sorry to hear that. I totally understand that it's a tough time. But I do ne..." (score: 0.333); CRITICAL: "I see. Well, it might be worth considering a small payment today to show you're ..." (score: 0.497); CRITICAL: "I understand it’s difficult, but it really would be helpful if we could resolve ..." (score: 0.299)</t>
         </is>
       </c>
     </row>
@@ -729,35 +729,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.486</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that things can get tough, but we really need a payment today to av..." (violation_sim: 0.643, severity_gap: 0.056, near boundary: low and medium); MEDIUM: "Look, that’s not really our concern right now. We just need payment to avoid any..." (violation_sim: 0.633, severity_gap: 0.064, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mike from ABC Collections. I'm reaching out regarding your outsta..." (score: 0.486); CRITICAL: "I understand that, but you need to realize that if this isn’t resolved soon, we ..." (score: 0.616); CRITICAL: "It's not illegal if we feel it’s necessary. You need to pay up or face serious c..." (score: 0.427)</t>
         </is>
       </c>
     </row>
@@ -769,17 +769,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.477</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Lisa from the collections department. I'm calling about your account..." (score: 0.477); CRITICAL: "I'm really sorry to hear that. It sounds tough. However, we do need to resolve y..." (score: 0.384); CRITICAL: "I appreciate your honesty, but I really recommend you sort this out today. It’ll..." (score: 0.382); CRITICAL: "I completely understand, but we do need something from you to move forward. It's..." (score: 0.380)</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm reaching out about your..." (score: 0.470); CRITICAL: "I understand. That can be really difficult. But we do need to find a way to addr..." (score: 0.488); CRITICAL: "Well, we can certainly look into that. However, I would really recommend you mak..." (score: 0.619); CRITICAL: "Okay, I appreciate that. But I do need to stress that the sooner we handle this,..." (score: 0.411)</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R004(medium), R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MEDIUM: "That’s not our issue. You still owe the money. If you don't pay soon, we will ha..." (violation_sim: 0.616, severity_gap: 0.060); CRITICAL: "I’m afraid if this isn’t paid soon, we’ll have no choice but to take legal actio..." (violation_sim: 0.579, severity_gap: 0.051); MEDIUM: "Fair or not, the balance is due. We might even notify your employer if this isn'..." (violation_sim: 0.563, severity_gap: 0.098)</t>
+          <t>CRITICAL: "Hello, this is Mike from the collections department. I'm reaching out regarding ..." (score: 0.456); CRITICAL: "I understand, but we really need to settle this right now. You can't just ignore..." (score: 0.322); CRITICAL: "Honestly, we need payment immediately to avoid further actions. It's really cruc..." (score: 0.640, near boundary: high and critical); CRITICAL: "Look, I get it, but we can't keep waiting. You need to take care of this today o..." (score: 0.389)</t>
         </is>
       </c>
     </row>
@@ -904,17 +904,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.524</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -937,7 +937,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm calling about your accoun..." (score: 0.524); CRITICAL: "I understand that life happens, but we really need you to take care of this righ..." (score: 0.627, near boundary: high and critical); CRITICAL: "Look, I appreciate your situation, but we’re unable to keep your account open wi..." (score: 0.519); CRITICAL: "I’m afraid we need something now. The longer you wait, the worse it gets for you..." (score: 0.591)</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.234</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but we really need to get this resolved. I can't stress enough how..." (violation_sim: 0.590, severity_gap: 0.234); MEDIUM: "Honestly, I’d suggest you make a payment today. Without some action, this could ..." (violation_sim: 0.579, severity_gap: 0.050, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi there, this is Jessica from the collections department. I'm reaching out beca..." (score: 0.491); CRITICAL: "I understand, but we really need to get a payment made today. It’s important to ..." (score: 0.651, near boundary: high and critical); CRITICAL: "I appreciate your situation, but our policy is to require payment immediately. Y..." (score: 0.584); CRITICAL: "I understand that, but we need to focus on the balance. Ignoring it won’t make i..." (score: 0.375)</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1019,15 +1019,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MEDIUM: "A payment plan? Look, that’s just delaying the inevitable. If you think you can ..." (violation_sim: 0.566, severity_gap: 0.014, near boundary: medium and high); HIGH: "Understanding? You’ve already had your chance. Just stop with the excuses and de..." (violation_sim: 0.571, severity_gap: 0.085)</t>
+          <t>CRITICAL: "Listen up, you owe us $1,200, and it's about time you paid it. If you think this..." (score: 0.535); CRITICAL: "That's not my problem. You signed the agreement, and now you're going to ruin yo..." (score: 0.512); CRITICAL: "You think this is overwhelming? Try facing the consequences of having terrible c..." (score: 0.478)</t>
         </is>
       </c>
     </row>
@@ -1039,17 +1039,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.497</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out regarding yo..." (score: 0.497); CRITICAL: "I understand those situations can be tough. However, to avoid any further issues..." (score: 0.404); CRITICAL: "I totally get it, but we do need to find a way to address this. It really would ..." (score: 0.321)</t>
         </is>
       </c>
     </row>
@@ -1089,27 +1089,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.490</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>MEDIUM: "Understanding? You should’ve thought about that before you racked up this debt. ..." (violation_sim: 0.618, severity_gap: 0.030, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm calling regarding your ..." (score: 0.490); CRITICAL: "I understand, but you need to take this seriously. If we don’t receive payment s..." (score: 0.604); CRITICAL: "Well, the longer you wait, the more complications can arise. You should really c..." (score: 0.499); CRITICAL: "I'm just being realistic here. If you don't act now, you really might find your ..." (score: 0.499)</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.195</t>
+          <t>0.486</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand times are tough, but you need to address this balance. We require p..." (violation_sim: 0.623, severity_gap: 0.195)</t>
+          <t>CRITICAL: "Hi, this is Lisa calling from the collections department. I’m reaching out about..." (score: 0.486); CRITICAL: "I understand your situation, but we need to resolve this debt. It’s important yo..." (score: 0.667, near boundary: high and critical); CRITICAL: "Well, paying in full today would be the best option. You really don’t want this ..." (score: 0.435); CRITICAL: "Look, I’m really sorry, but we can’t hold off on payment. It’s best to handle th..." (score: 0.620)</t>
         </is>
       </c>
     </row>
@@ -1179,27 +1179,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.506</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HIGH: "Health issues? That's your excuse? You think that’s going to save your credit? Y..." (violation_sim: 0.595, severity_gap: 0.067, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Tom from the collections department. You have an outstanding bala..." (score: 0.506); CRITICAL: "I understand, but you really need to pay up soon. If you don't, I might have to ..." (score: 0.573); CRITICAL: "I'm just saying, if this continues, it's going to get serious. We will have no c..." (score: 0.381); CRITICAL: "Look, I can't help you unless you start making payments. This has to be resolved..." (score: 0.480)</t>
         </is>
       </c>
     </row>
@@ -1224,27 +1224,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.527</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand you're in a tough spot, but I really encourage you to consider maki..." (violation_sim: 0.556, severity_gap: 0.043, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Jenna from the collections department. I'm reaching out about your a..." (score: 0.527); CRITICAL: "I understand, but we really need to get this taken care of. It's been over 60 da..." (score: 0.608); CRITICAL: "I get that, but it’s important to make a payment. If you don’t pay now, it could..." (score: 0.558); CRITICAL: "Honestly, I really need you to commit to a full payment today. Leaving this unre..." (score: 0.650, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.448</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there! This is Mark from the collections department. I'm reaching out about y..." (score: 0.448); CRITICAL: "I'm really sorry to hear that. I can only imagine how stressful that must be. Wo..." (score: 0.371); CRITICAL: "Of course, we can look into a payment plan that works for you. How much can you ..." (score: 0.362); CRITICAL: "Absolutely, I can set that up for you. I’ll draft a plan for $100 a month. You’l..." (score: 0.335)</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but we need to get this resolved. You really should be making..." (violation_sim: 0.611, severity_gap: 0.132); MEDIUM: "I hear you, but if we don’t see any payment soon, this could escalate. It’s real..." (violation_sim: 0.655, severity_gap: 0.085)</t>
+          <t>CRITICAL: "Hello, this is Tom from the collections department. I'm reaching out about your ..." (score: 0.461); CRITICAL: "That's really not our concern. If you don't pay, I’ll have to inform your employ..." (score: 0.516); CRITICAL: "Look, you signed the agreement. Either you pay within the next week or we'll tak..." (score: 0.545); CRITICAL: "Your situation is irrelevant. The debt needs to be cleared, or the consequences ..." (score: 0.623)</t>
         </is>
       </c>
     </row>
@@ -1354,17 +1354,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm calling regarding your ..." (score: 0.518); CRITICAL: "I understand, but we can't just keep waiting. You need to make a payment as soon..." (score: 0.547); CRITICAL: "I get that, but unfortunately, we need to prioritize getting this settled. Have ..." (score: 0.538); CRITICAL: "Well, we can't just hold off without a payment, so I really advise you to pay so..." (score: 0.605)</t>
         </is>
       </c>
     </row>
@@ -1404,12 +1404,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.449</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R004(medium), R001(low), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you signed the agreement, and we really need you to take ..." (violation_sim: 0.581, severity_gap: 0.160); LOW: "I get that, but this is urgent. If you don’t pay something today, this could esc..." (violation_sim: 0.578, severity_gap: 0.039, near boundary: low and medium); MEDIUM: "Look, I can’t just let this go. If we don’t see some payment today, your credit ..." (violation_sim: 0.619, severity_gap: 0.009, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Lisa from the collections department. I'm reaching out about your ou..." (score: 0.449); CRITICAL: "I'm sorry to hear that. But, I have to say that we really need to resolve this i..." (score: 0.350); CRITICAL: "I get it, but honestly, you should try to at least make a small payment today. I..." (score: 0.555); CRITICAL: "I really encourage you to consider some form of payment today. It could really h..." (score: 0.546)</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.490</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1469,15 +1469,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R004(medium), R001(critical)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>MEDIUM: "That’s unfortunate, but you know that we can't just let this slide. If you don't..." (violation_sim: 0.582, severity_gap: 0.054); CRITICAL: "Listen, if you can’t pay right now, I can’t guarantee that we won’t contact your..." (violation_sim: 0.567, severity_gap: 0.019)</t>
+          <t>CRITICAL: "Hello, this is Jessica from the collections department. I'm reaching out regardi..." (score: 0.490); CRITICAL: "I understand, but you need to take this seriously. If you don’t pay soon, we mig..." (score: 0.606); CRITICAL: "Well, it's your responsibility to pay this off, and if it escalates, we may have..." (score: 0.530); CRITICAL: "You're at risk of legal action if you don't pay. I suggest you make a payment to..." (score: 0.602)</t>
         </is>
       </c>
     </row>
@@ -1494,27 +1494,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>MEDIUM: "I hear you, but unfortunately, that doesn’t change the fact that you owe this am..." (violation_sim: 0.590, severity_gap: 0.144); HIGH: "I really can’t extend this any further. If this isn’t resolved soon, your credit..." (violation_sim: 0.595, severity_gap: 0.024, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen, you're way overdue on your payments, $1,200! You really need to get your..." (score: 0.493); CRITICAL: "That's not my problem. You think I care about your job? You signed up for this, ..." (score: 0.532); CRITICAL: "Work something out? Ha! You really think that's how this works? If you don't pay..." (score: 0.490); CRITICAL: "Help you? You should have thought about that before you let this drag on! Pay wh..." (score: 0.630, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -1539,17 +1539,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.510</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that. But if you don't pay up, we're going to have to move forward ..." (violation_sim: 0.587, severity_gap: 0.058); MEDIUM: "Honestly, a plan is not going to help right now. You either pay the full amount ..." (violation_sim: 0.563, severity_gap: 0.119)</t>
+          <t>CRITICAL: "Hi, this is Lisa from Collections. I’m calling about your account with a balance..." (score: 0.510); CRITICAL: "I understand, but we can’t just let this slide. If you don’t pay soon, we’ll hav..." (score: 0.628, near boundary: high and critical); CRITICAL: "Well, it’s your responsibility. If you don’t take this seriously, we’re going to..." (score: 0.455); CRITICAL: "Time is not a luxury we have. You need to make a payment arrangement, or I will ..." (score: 0.596)</t>
         </is>
       </c>
     </row>
@@ -1579,17 +1579,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.489); CRITICAL: "I understand it's tough out there. But we really need to get this rectified soon..." (score: 0.481); CRITICAL: "I get that, but it's important to address this sooner rather than later. I encou..." (score: 0.447); CRITICAL: "Next week might be pushing it. I really need something from you before we finish..." (score: 0.296)</t>
         </is>
       </c>
     </row>
@@ -1629,27 +1629,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.438</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>MEDIUM: "Hey there, this is Mike from Collections. You've got a past due balance of $1,50..." (violation_sim: 0.582, severity_gap: 0.059, near boundary: medium and high); MEDIUM: "Payment plan? Ha! You need to cough up the whole amount or face the consequences..." (violation_sim: 0.565, severity_gap: 0.062, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen up, you're sitting on a balance of $1,200, and it's disgraceful that you ..." (score: 0.438); CRITICAL: "That's your problem, not ours. You think just because you lost your job everyone..." (score: 0.351); CRITICAL: "A payment plan? Seriously? At this rate, your credit will be ruined forever, and..." (score: 0.510); CRITICAL: "You should have thought about that before racking up the bill. You’ve made your ..." (score: 0.485)</t>
         </is>
       </c>
     </row>
@@ -1674,27 +1674,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you need to take care of this balance. It's been overdue ..." (violation_sim: 0.575, severity_gap: 0.062, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.428); CRITICAL: "I'm really sorry to hear that. Losing a job can be really tough. Let’s see how w..." (score: 0.402); CRITICAL: "I completely understand. We can set up a temporary payment plan that might ease ..." (score: 0.448); CRITICAL: "We can look at starting with $50 each month for the next two months. After that,..." (score: 0.383)</t>
         </is>
       </c>
     </row>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.480</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Alex from the collections department. I’m reaching out because..." (score: 0.480); CRITICAL: "I’m really sorry to hear that. It can be really tough. However, we do need to ad..." (score: 0.558); CRITICAL: "I completely understand. Just a reminder, it's best to sort this out today if yo..." (score: 0.439); CRITICAL: "I hear you, but I'd recommend we try to find a solution as soon as possible. It’..." (score: 0.349)</t>
         </is>
       </c>
     </row>
@@ -1764,17 +1764,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.409</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>MEDIUM: "I completely understand, but we can't wait forever. If you don’t pay soon, we’ll..." (violation_sim: 0.631, severity_gap: 0.023); MEDIUM: "Look, if you don’t make a payment by the end of the week, we will have no choice..." (violation_sim: 0.556, severity_gap: 0.097)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out regarding yo..." (score: 0.409); HIGH: "I'm sorry to hear that. Can you tell me a bit more about the service and what ha..." (score: 0.250); CRITICAL: "That sounds really frustrating, and I apologize for the inconvenience. I’ll make..." (score: 0.492); CRITICAL: "Absolutely, I understand. We can set up a plan for you to pay $150 a month for t..." (score: 0.350)</t>
         </is>
       </c>
     </row>
@@ -1804,17 +1804,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.504</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.504); CRITICAL: "I understand, but we still need to settle that balance. It’s really important to..." (score: 0.451); CRITICAL: "I see your concern, but we really do need to resolve this balance. It's been out..." (score: 0.519); CRITICAL: "I encourage you to handle this quickly. A payment plan can be set up, but it wou..." (score: 0.533)</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1849,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I’m reaching out about your b..." (score: 0.447); CRITICAL: "I understand that, but the payment is still overdue. We need to resolve this qui..." (score: 0.588); CRITICAL: "Well, you signed an agreement, and we expect payments on time. It’s important to..." (score: 0.647, near boundary: high and critical); CRITICAL: "I really can't offer you a plan without a clear commitment to pay. It’s urgent t..." (score: 0.520)</t>
         </is>
       </c>
     </row>
@@ -1894,17 +1894,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.477</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.477); CRITICAL: "I understand, but I must stress that we need payment immediately to avoid furthe..." (score: 0.617); CRITICAL: "Honestly, a payment plan might not be enough at this point. We're looking for a ..." (score: 0.525); CRITICAL: "I get that, but we need to resolve this quickly. The sooner you can make a payme..." (score: 0.590)</t>
         </is>
       </c>
     </row>
@@ -1944,12 +1944,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.490</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that, but we really need payment now to avoid further action. You signed t..." (violation_sim: 0.562, severity_gap: 0.140); MEDIUM: "Well, it's important to take care of this quickly. Ignoring it won't make it go ..." (violation_sim: 0.569, severity_gap: 0.041, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hello, this is Mark from XYZ Collections. You have an outstanding balance of $1,..." (score: 0.490); CRITICAL: "I understand, but you need to take this seriously. If you don’t pay, I might hav..." (score: 0.569); CRITICAL: "Look, I’m just saying we can’t keep this going. If it comes to it, we will have ..." (score: 0.570); CRITICAL: "I really can’t help you if you won’t make an effort to pay. This debt isn’t goin..." (score: 0.616)</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1984,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Lisa from the collections department. I see that your account balanc..." (score: 0.427); CRITICAL: "I completely understand. Medical expenses can be really overwhelming. Let's see ..." (score: 0.388); CRITICAL: "Absolutely, I can only imagine how challenging that must be. Would you be open t..." (score: 0.373); CRITICAL: "That's totally fine. We can start with a lower amount and adjust it later if nee..." (score: 0.320)</t>
         </is>
       </c>
     </row>
@@ -2034,27 +2034,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R004(medium), R001(low)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but we need to get this resolved. I can’t keep saying this, but yo..." (violation_sim: 0.614, severity_gap: 0.078, near boundary: low and medium); LOW: "Look, I really urge you to take action. It’s in your best interest to pay someth..." (violation_sim: 0.611, severity_gap: 0.018, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.470); CRITICAL: "I’m really sorry to hear that. It’s a tough situation. However, we do need to ad..." (score: 0.620); CRITICAL: "I completely understand, but just a small payment today would show good faith. Y..." (score: 0.517); HIGH: "I wish I could, but we need to see some movement on this soon. Let’s see how we ..." (score: 0.267)</t>
         </is>
       </c>
     </row>
@@ -2074,17 +2074,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.471</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2099,15 +2099,15 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm reaching out regarding ..." (score: 0.471); CRITICAL: "I understand, but you signed a contract agreeing to these payments. If we don't ..." (score: 0.531); CRITICAL: "Unfortunately, that's not our concern. You need to prioritize this. If you don't..." (score: 0.624, near boundary: high and critical); CRITICAL: "We can’t extend any more options unless you pay at least half of the balance tod..." (score: 0.603)</t>
         </is>
       </c>
     </row>
@@ -2119,17 +2119,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm calling regarding your ac..." (score: 0.468); CRITICAL: "I understand, but this balance needs to be settled. Honestly, we need your full ..." (score: 0.614); CRITICAL: "I mean, waiting could just make things worse. It's really best if you pay the fu..." (score: 0.488); CRITICAL: "I get that, but my hands are tied. If you can't pay now, I really don’t know wha..." (score: 0.497)</t>
         </is>
       </c>
     </row>
@@ -2169,27 +2169,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>HIGH: "I understand, but it's important to take care of this as soon as possible. If yo..." (violation_sim: 0.563, severity_gap: 0.056, near boundary: medium and high); MEDIUM: "Look, I really need you to make a payment immediately. Otherwise, you risk legal..." (violation_sim: 0.625, severity_gap: 0.048)</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I'm calling about your outs..." (score: 0.460); CRITICAL: "I get that, but this isn't just going to go away. If you don't pay soon, I will ..." (score: 0.503); CRITICAL: "Well, if you don't take action, contacting your family might be your only option..." (score: 0.421); CRITICAL: "It's just a matter of urgency. You know we have to take steps if payments aren't..." (score: 0.573)</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Mark from collections. You're way behind on your account, like $1,20..." (score: 0.499); CRITICAL: "Well, that’s not really my issue, is it? You owe us money. If you don’t pay up, ..." (score: 0.630, near boundary: high and critical); CRITICAL: "Time? That doesn't matter to us. You signed a contract. You're just digging your..." (score: 0.445); CRITICAL: "Look, if you don't pay something soon, I promise you'll regret it. This will rui..." (score: 0.588)</t>
         </is>
       </c>
     </row>
@@ -2254,17 +2254,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.538</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen, you're $1,200 behind on your payments. This is ridiculous. You need to g..." (score: 0.538); CRITICAL: "That's not my problem! You should've thought about that before ignoring your res..." (score: 0.592); CRITICAL: "A plan? Seriously? You're just wasting my time. If you don’t send something toda..." (score: 0.557); CRITICAL: "Understanding? You’ve got to be kidding me! Pay up or face the consequences. It’..." (score: 0.532)</t>
         </is>
       </c>
     </row>
@@ -2299,17 +2299,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.456); CRITICAL: "I'm really sorry to hear that. I can understand how challenging that must be. Wo..." (score: 0.465); CRITICAL: "Absolutely, we can definitely work something out. We could set up a payment plan..." (score: 0.301); CRITICAL: "That sounds reasonable. Let’s set that up for the next three months, and we can ..." (score: 0.369)</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but the payment is due. We really need to resolve this right ..." (violation_sim: 0.597, severity_gap: 0.146); MEDIUM: "I get that you're having a hard time, but you signed an agreement. We need you t..." (violation_sim: 0.604, severity_gap: 0.129)</t>
+          <t>CRITICAL: "Hi there! This is Sarah from the collections department. I'm calling about your ..." (score: 0.435); CRITICAL: "I’m really sorry to hear that. It must be tough. Let’s see how we can help you w..." (score: 0.501); CRITICAL: "I completely understand. We can offer a plan that allows you to pay a smaller am..." (score: 0.365); CRITICAL: "No problem. How about I note that you’re experiencing hardship and we can revisi..." (score: 0.550)</t>
         </is>
       </c>
     </row>
@@ -2394,27 +2394,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.073</t>
+          <t>0.451</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that, but you really need to take this seriously. If we don’t get the paym..." (violation_sim: 0.619, severity_gap: 0.105); MEDIUM: "I understand your situation, but this is a serious debt. If you don’t pay, we wi..." (violation_sim: 0.587, severity_gap: 0.022); HIGH: "I’m just saying, if you don’t take care of this, we really have no choice. Your ..." (violation_sim: 0.660, severity_gap: 0.073, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.451); CRITICAL: "I'm really sorry to hear that. I can only imagine how tough it must be for you. ..." (score: 0.418); CRITICAL: "That’s completely understandable. We can discuss setting up a payment plan that ..." (score: 0.417); CRITICAL: "That sounds reasonable. I can set up a payment of $100 for this month, and we ca..." (score: 0.392)</t>
         </is>
       </c>
     </row>
@@ -2434,17 +2434,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Derek from the collections department. I see you have a past due ..." (score: 0.455); CRITICAL: "I understand, but you need to understand that if you don't pay up, we will have ..." (score: 0.559); CRITICAL: "I get that, but this is serious. If you don't settle this soon, we're going to c..." (score: 0.595); CRITICAL: "I can't hold back forever. Either you make a payment today or we will have to ta..." (score: 0.622)</t>
         </is>
       </c>
     </row>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.538</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>MEDIUM: "I hear you, but the policy requires full payment. You need to pay something toda..." (violation_sim: 0.566, severity_gap: 0.165)</t>
+          <t>CRITICAL: "Hey, this is Jeff from Collections. You owe us $1,200, and it's been a while. Yo..." (score: 0.538); CRITICAL: "Look, that's not my concern. You should have thought about that before getting i..." (score: 0.561); CRITICAL: "Time? Are you kidding me? Your credit score is going to tank, and no one will lo..." (score: 0.556); CRITICAL: "You think I care about your sob story? Pay what you owe, or just accept that you..." (score: 0.550)</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.521</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but it's crucial that we get a payment made. I can't stress enough..." (violation_sim: 0.630, severity_gap: 0.123); MEDIUM: "I need to inform you that unless we receive some payment immediately, we're goin..." (violation_sim: 0.572, severity_gap: 0.144)</t>
+          <t>CRITICAL: "Hi there, this is Lisa from Collections. I’m reaching out about your account. Yo..." (score: 0.521); CRITICAL: "I understand, but the payment is really important and we can't just let this go ..." (score: 0.593); CRITICAL: "Well, I can't guarantee any special treatment. It would really be best to pay th..." (score: 0.552); CRITICAL: "Look, I understand where you're coming from, but the longer you wait, the worse ..." (score: 0.553)</t>
         </is>
       </c>
     </row>
@@ -2569,17 +2569,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Jessica from the collections department. I'm reaching out regarding ..." (score: 0.447); HIGH: "I'm really sorry to hear that. I understand how tough it can be. Let's see how w..." (score: 0.294); CRITICAL: "I get that. Would you be open to setting up a payment plan? We can work somethin..." (score: 0.506); CRITICAL: "We could start with a smaller payment, maybe $50 a month, and adjust as your sit..." (score: 0.414)</t>
         </is>
       </c>
     </row>
@@ -2619,27 +2619,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.532</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand where you're coming from, but we really need to resolve this. If yo..." (violation_sim: 0.593, severity_gap: 0.018, near boundary: low and medium); HIGH: "Look, I can't just put this off indefinitely. You signed a contract, and we need..." (violation_sim: 0.567, severity_gap: 0.044, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi there, this is Jane from the collections department. I wanted to discuss your..." (score: 0.532); CRITICAL: "I understand, but we really need full payment right away to avoid further compli..." (score: 0.586); CRITICAL: "I'd really advise you to make a full payment today. The longer this goes on, the..." (score: 0.607); CRITICAL: "Unfortunately, we can’t accommodate that at the moment. You need to make a payme..." (score: 0.461)</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R004(medium), R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MEDIUM: "That's unfortunate, but you signed the agreement. If you don't pay, we may have ..." (violation_sim: 0.571, severity_gap: 0.075); CRITICAL: "Well, if you can’t pay, we're going to have no choice but to escalate this. I mi..." (violation_sim: 0.556, severity_gap: 0.028); MEDIUM: "I suggest you make full payment today. Otherwise, your credit will take a hit, a..." (violation_sim: 0.618, severity_gap: 0.035, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Alex from the collections department. I'm reaching out regarding ..." (score: 0.461); CRITICAL: "I understand that can be tough. It's important we address this soon, though. Hav..." (score: 0.564); CRITICAL: "I get that, but if we don’t resolve this quickly, it might complicate things fur..." (score: 0.341)</t>
         </is>
       </c>
     </row>
@@ -2709,27 +2709,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.482</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>HIGH: "That's not my issue. You owe this money, and if you don’t pay soon, your credit ..." (violation_sim: 0.575, severity_gap: 0.061, near boundary: medium and high); MEDIUM: "Look, you should've thought about that before you racked up this debt. You need ..." (violation_sim: 0.613, severity_gap: 0.018, near boundary: medium and high); HIGH: "Well, that’s your problem. Pay or face the consequences. Your life is about to g..." (violation_sim: 0.566, severity_gap: 0.030, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Tom from the collections department. I'm calling about your outst..." (score: 0.482); CRITICAL: "I understand, but you know we can’t just let this go. If you don't pay soon, we ..." (score: 0.592); CRITICAL: "Look, I’m just saying that it’s an option we have if this isn’t resolved. You ne..." (score: 0.565); CRITICAL: "It’s not a threat; it’s a reality if you don’t pay. You really need to take this..." (score: 0.476)</t>
         </is>
       </c>
     </row>
@@ -2749,17 +2749,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.451</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2774,15 +2774,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R003(high), R003(high)</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.451); CRITICAL: "I’m really sorry to hear that. I understand that this can be a tough time. Can w..." (score: 0.376); HIGH: "Absolutely. We can set up a payment plan that fits your budget. Would you be abl..." (score: 0.294); HIGH: "Great! Let's get that set up for you. I’ll send you a confirmation email with th..." (score: 0.244)</t>
         </is>
       </c>
     </row>
@@ -2794,17 +2794,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections regarding your account. You have an outsta..." (score: 0.518); CRITICAL: "I understand, but you really need to take this seriously. If we don't get a paym..." (score: 0.644, near boundary: high and critical); CRITICAL: "I mean, if this goes on, we might have to involve our legal team. You don’t want..." (score: 0.406); CRITICAL: "I can't promise you that time, especially if you don’t make a payment soon. It's..." (score: 0.573)</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.504</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm calling about your acc..." (score: 0.504); CRITICAL: "I get that, but you signed a contract. If you don't pay up soon, I can assure yo..." (score: 0.543); CRITICAL: "Unfortunately, we can't wait too long. If we don't hear from you soon, I might h..." (score: 0.543); CRITICAL: "Time is running out, and if you're unable to resolve this, we will have no choic..." (score: 0.421)</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MEDIUM: "I’m really sorry to hear that. I understand how tough things can be. However, we..." (violation_sim: 0.560, severity_gap: 0.108); MEDIUM: "I get that, but I really encourage you to think about at least making some sort ..." (violation_sim: 0.586, severity_gap: 0.027, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections team. I'm reaching out regarding your acco..." (score: 0.489); CRITICAL: "I'm really sorry to hear that. I understand it's a tough situation. However, we ..." (score: 0.335); CRITICAL: "I understand. But if we could sort out a payment, even a small one, it would rea..." (score: 0.467); CRITICAL: "I get that, but we do need something from you today to avoid any added complicat..." (score: 0.379)</t>
         </is>
       </c>
     </row>
@@ -2929,17 +2929,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2954,15 +2954,15 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Look, you owe us $1,200, and we're not here to play games. You need to pay this ..." (score: 0.502); CRITICAL: "That's not my problem! You think we care about your excuses? If you don't pay th..." (score: 0.540); CRITICAL: "Payment plan? Ha! You should have thought about that before getting into this me..." (score: 0.571)</t>
         </is>
       </c>
     </row>
@@ -2974,17 +2974,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I'm calling about your acco..." (score: 0.499); CRITICAL: "I'm sorry to hear that, but you signed the agreement. We need you to make a paym..." (score: 0.594); CRITICAL: "Honestly, we need full payment immediately. The longer you wait, the worse it ge..." (score: 0.585); CRITICAL: "I understand your situation, but I must stress that this is urgent. Please make ..." (score: 0.630, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3024,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>HIGH: "Listen, I don't care about your excuses. Pay now or we’ll ruin your credit for g..." (violation_sim: 0.577, severity_gap: 0.124); MEDIUM: "No payment plan is going to save you. Either you pay today, or you face the full..." (violation_sim: 0.581, severity_gap: 0.106)</t>
+          <t>CRITICAL: "Hi, this is Sarah from XYZ Collections. I'm reaching out regarding your account,..." (score: 0.405); CRITICAL: "I understand that can be frustrating. Let me check the details of your account. ..." (score: 0.369); CRITICAL: "I totally see your point. However, we prefer to have something settled by the en..." (score: 0.461); CRITICAL: "I understand it's tough, but I do need something to move forward today. Would a ..." (score: 0.399)</t>
         </is>
       </c>
     </row>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.462</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>CRITICAL: "That's unfortunate, but you really should have thought about that before. If you..." (violation_sim: 0.574, severity_gap: 0.052); MEDIUM: "Honestly, that sounds like a personal issue. At this point, if we don't hear fro..." (violation_sim: 0.626, severity_gap: 0.013)</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I'm reaching out about your..." (score: 0.462); CRITICAL: "I understand that, but this isn't going to resolve itself. If you don't settle t..." (score: 0.580); CRITICAL: "I get that you're looking for work, but we can't wait forever. If you don’t pay,..." (score: 0.445); CRITICAL: "I’m sorry, but time is running out. You really need to take this seriously if yo..." (score: 0.459)</t>
         </is>
       </c>
     </row>
@@ -3114,12 +3114,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>HIGH: "Honestly, that’s not my problem. You owe us money, and if you don't pay this off..." (violation_sim: 0.570, severity_gap: 0.105); MEDIUM: "A payment plan? That’s cute, but you’re going to have to pay it all right away. ..." (violation_sim: 0.602, severity_gap: 0.070, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Steve from the collections department. I see you have an outstand..." (score: 0.455); CRITICAL: "I get that, but you're almost 60 days late. If you don’t pay up, I’ll have to es..." (score: 0.543); CRITICAL: "A payment plan? That’s nice, but if you don’t pay immediately, this could go on ..." (score: 0.535); CRITICAL: "Well, if you don’t handle this today, I’ll have to inform your employer. You rea..." (score: 0.416)</t>
         </is>
       </c>
     </row>
@@ -3154,17 +3154,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.455); CRITICAL: "I’m really sorry to hear that. I understand how challenging that can be. Would y..." (score: 0.479); CRITICAL: "Absolutely, we can work something out. We can set up a payment plan that fits yo..." (score: 0.380)</t>
         </is>
       </c>
     </row>
@@ -3204,27 +3204,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but we really need to settle this balance. Can you make a pay..." (violation_sim: 0.625, severity_gap: 0.169); HIGH: "I get it, but we have protocols to follow. It's in your best interest to take ca..." (violation_sim: 0.626, severity_gap: 0.025, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.437); CRITICAL: "I'm really sorry to hear that. I can imagine how tough that must be. Let's discu..." (score: 0.420); CRITICAL: "Absolutely, we can work together on a payment plan that fits your current situat..." (score: 0.442); CRITICAL: "Great! I can set up a plan where you pay $100 a month for the next three months...." (score: 0.331)</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>0.487</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you really need to make a payment immediately. You’ve alr..." (violation_sim: 0.561, severity_gap: 0.118)</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out about your ..." (score: 0.487); CRITICAL: "I understand, but we really need to sort this out. I must insist that you make a..." (score: 0.624, near boundary: high and critical); CRITICAL: "I get that, but this is urgent. You could ruin your credit if you don’t act now...." (score: 0.612); CRITICAL: "Look, I really need you to prioritize this. We don’t have time for payment plans..." (score: 0.486)</t>
         </is>
       </c>
     </row>
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>HIGH: "Listen up, you owe us $1,200 and it's time to pay up. If you don't, your credit ..." (violation_sim: 0.557, severity_gap: 0.098)</t>
+          <t>CRITICAL: "Listen up, you're way behind on your payments. You owe $1,250, and if you don't ..." (score: 0.509); CRITICAL: "That's too bad, but you really need to get your priorities straight. If you don’..." (score: 0.554); CRITICAL: "Well, 'soon' isn't good enough. You're dragging this out, and at this rate, you'..." (score: 0.310); CRITICAL: "A payment plan? Seriously? You think that will help? You’re just delaying the in..." (score: 0.578)</t>
         </is>
       </c>
     </row>
@@ -3339,17 +3339,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.443</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you really need to take care of this. If you don't pay so..." (violation_sim: 0.636, severity_gap: 0.053); MEDIUM: "I get that, but you signed an agreement. It’s not our fault you’re in this mess...." (violation_sim: 0.601, severity_gap: 0.012, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections. I'm reaching out about your account that ..." (score: 0.443); CRITICAL: "That’s not really our concern. If you don’t pay up soon, we’ll have no choice bu..." (score: 0.619); CRITICAL: "I’m just saying that if we don’t get this sorted, that’s where it could lead. Yo..." (score: 0.360); CRITICAL: "Time is running out. We’ll definitely report this to your credit, too. I suggest..." (score: 0.585)</t>
         </is>
       </c>
     </row>
@@ -3384,12 +3384,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.145</t>
+          <t>0.504</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you really need to make a payment as soon as possible. The bal..." (violation_sim: 0.600, severity_gap: 0.145); MEDIUM: "I hear you, but we require immediate payment, or this may escalate. I don't want..." (violation_sim: 0.631, severity_gap: 0.132)</t>
+          <t>CRITICAL: "This is Sarah from Collections. You owe $1,200, and honestly, I don’t see how yo..." (score: 0.504); CRITICAL: "Tough times? That’s just an excuse. You need to pay up; otherwise, your credit i..." (score: 0.433); CRITICAL: "Then maybe you should think twice before making poor financial decisions. You si..." (score: 0.429); CRITICAL: "A payment plan? You think that’s going to save you? You’re just pushing your pro..." (score: 0.522)</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.086</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>HIGH: "That’s not my concern. You should’ve thought about that before you decided to no..." (violation_sim: 0.600, severity_gap: 0.086)</t>
+          <t>CRITICAL: "Hi there! This is Jenna calling from the collections department. I noticed your ..." (score: 0.474); CRITICAL: "I'm really sorry to hear that. I can definitely help you explore some options. B..." (score: 0.338); CRITICAL: "I get it, and I want to be as helpful as possible. However, the sooner we can ad..." (score: 0.500); CRITICAL: "I completely understand your situation. Just remember, resolving this today will..." (score: 0.460)</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.466</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R003(high), R001(critical)</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, and we can definitely look into options. However, the sooner we ca..." (violation_sim: 0.552, severity_gap: 0.089); MEDIUM: "I appreciate that. Just remember, making a payment today would help prevent any ..." (violation_sim: 0.562, severity_gap: 0.039, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out regarding yo..." (score: 0.466); HIGH: "I'm really sorry to hear that. That must be really tough. Can you share how we c..." (score: 0.259); CRITICAL: "Absolutely, I can help with that. We can set up a temporary payment plan that fi..." (score: 0.377)</t>
         </is>
       </c>
     </row>
@@ -3514,17 +3514,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Jamie from Collections. I'm reaching out about your overdue balan..." (score: 0.446); CRITICAL: "I get that, but you need to understand that if you don’t pay, we’re going to hav..." (score: 0.494); CRITICAL: "Look, I understand, but if this continues, we could make it more difficult for y..." (score: 0.438); CRITICAL: "A payment plan won’t help if it’s not set up immediately. You’re looking at seri..." (score: 0.547)</t>
         </is>
       </c>
     </row>
@@ -3559,17 +3559,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Alex from the collections department. I'm reaching out regarding ..." (score: 0.458); CRITICAL: "I understand, but you really need to make a payment on this. It’s crucial to sta..." (score: 0.557); CRITICAL: "Well, we’d really prefer an immediate payment to settle this. It’s important for..." (score: 0.634, near boundary: high and critical); CRITICAL: "I get that, but we still can’t just wait around. We need you to clear this up as..." (score: 0.315)</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>MEDIUM: "That’s really unfortunate to hear, but honestly, if we don’t receive payment soo..." (violation_sim: 0.614, severity_gap: 0.030); MEDIUM: "I need to be clear here. We need payment immediately, or there will be serious r..." (violation_sim: 0.643, severity_gap: 0.082)</t>
+          <t>CRITICAL: "Listen, you're over $1,500 past due. This is getting ridiculous. You think ignor..." (score: 0.437); CRITICAL: "That's not my problem. You should have thought about that before you racked up a..." (score: 0.569); CRITICAL: "Work something out? You need to realize this isn't a charity! You're just diggin..." (score: 0.298); CRITICAL: "Empathy? Please. You think anyone cares about your sob story? Just pay what you ..." (score: 0.457)</t>
         </is>
       </c>
     </row>
@@ -3649,17 +3649,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.529</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3674,15 +3674,15 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hey, it's about time you picked up. You owe us $1,200, and honestly, this is get..." (score: 0.529); CRITICAL: "Look, that's not our problem. You think your sob story is gonna make us wait? Pa..." (score: 0.609); CRITICAL: "A plan? Seriously? You really think we're going to let you slide? You’ll never g..." (score: 0.516); CRITICAL: "Unfair? Try being responsible. You signed the contract, and now you want sympath..." (score: 0.440)</t>
         </is>
       </c>
     </row>
@@ -3699,12 +3699,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that things can be challenging, but we really need to resolve this...." (violation_sim: 0.560, severity_gap: 0.089); MEDIUM: "Look, you need to understand that this account is very overdue. If you don’t pay..." (violation_sim: 0.585, severity_gap: 0.051, near boundary: medium and high); MEDIUM: "Honestly, I recommend just paying the full balance today. Otherwise, it’s only g..." (violation_sim: 0.570, severity_gap: 0.104)</t>
+          <t>CRITICAL: "Hello, this is Sam from Collections. You owe $1,200, and honestly, if you don't ..." (score: 0.509); CRITICAL: "That's not my problem. You signed up for this, and now you're just ignoring your..." (score: 0.507); CRITICAL: "Work something out? You think you can just delay this? If you don't pay up, I me..." (score: 0.535); CRITICAL: "A couple of weeks? Yeah, that’s not happening. You need to step up and pay today..." (score: 0.531)</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3744,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.567</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3759,12 +3759,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>high and critical</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you really have to take this seriously. If we don’t get p..." (violation_sim: 0.592, severity_gap: 0.054); MEDIUM: "I’m just saying what might happen if this isn't resolved. You need to make a pay..." (violation_sim: 0.603, severity_gap: 0.052, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen up, you're way behind on your payments. You owe us $1,500, and it's time ..." (score: 0.567); CRITICAL: "That’s not really my concern. You think we care about your job? You signed a con..." (score: 0.524); CRITICAL: "A break? Seriously? This is a business, not a charity. You might as well kiss an..." (score: 0.388); CRITICAL: "Time? You think you can just waltz in here and demand time? Pay up now, or we’ll..." (score: 0.526)</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>MEDIUM: "I appreciate your situation, but I really must push for immediate payment. We ca..." (violation_sim: 0.609, severity_gap: 0.118); MEDIUM: "I hear you, but the sooner you pay, the better it is for your credit. We can't k..." (violation_sim: 0.663, severity_gap: 0.020, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.474); CRITICAL: "I'm really sorry to hear that. That must be incredibly tough. We can definitely ..." (score: 0.425); CRITICAL: "Thank you for sharing that. We could set up a payment plan for you at $100 a mon..." (score: 0.514); HIGH: "Of course! I’ll send you the details of the plan via email. Just to confirm, wou..." (score: 0.275)</t>
         </is>
       </c>
     </row>
@@ -3834,17 +3834,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.462</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you have to realize this will only get worse if you don’t..." (violation_sim: 0.624, severity_gap: 0.055); MEDIUM: "Well, I have to do what I can to recover this debt. You really should consider m..." (violation_sim: 0.565, severity_gap: 0.089)</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections department. I'm calling regarding your out..." (score: 0.462); CRITICAL: "I get that, but you signed a contract. If this isn't resolved soon, we will have..." (score: 0.506); CRITICAL: "Unfortunately, I can't do that. If you don’t pay, I might have to report this to..." (score: 0.417); CRITICAL: "I understand, but these are the consequences if you don’t take action. You can e..." (score: 0.564)</t>
         </is>
       </c>
     </row>
@@ -3879,27 +3879,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.505</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you’re still obligated to pay. If I don’t hear from you s..." (violation_sim: 0.599, severity_gap: 0.004); HIGH: "Look, I’m just being honest about the situation. You need to make a payment or f..." (violation_sim: 0.595, severity_gap: 0.014, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm calling about your over..." (score: 0.505); CRITICAL: "I understand, but you need to understand that if you don’t pay, we might have to..." (score: 0.559); CRITICAL: "Look, if you don’t take care of this, we can’t guarantee you won’t face serious ..." (score: 0.608); CRITICAL: "We really need full payment by the end of the week. Otherwise, I can't promise w..." (score: 0.553)</t>
         </is>
       </c>
     </row>
@@ -3919,17 +3919,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.469</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Sarah from Collections. I'm reaching out about your account. Y..." (score: 0.469); CRITICAL: "I understand, but we really need to resolve this. The balance is due, and it's i..." (score: 0.509); CRITICAL: "I understand you might feel that way, but you did agree to these terms. It's rea..." (score: 0.500); CRITICAL: "Honestly, we need full payment right away to avoid any further issues. It’s crit..." (score: 0.600)</t>
         </is>
       </c>
     </row>
@@ -3974,12 +3974,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.510</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CRITICAL: "That's really not our issue. If you don't pay, we might have to send this to our..." (violation_sim: 0.564, severity_gap: 0.037); MEDIUM: "I'm afraid you don't have that luxury. You need to make a payment right now, or ..." (violation_sim: 0.609, severity_gap: 0.008, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen up, you owe $1,275, and I'm tired of chasing you for this. You need to pa..." (score: 0.510); CRITICAL: "That's not my concern. You signed the contract, so you better find a way to pay,..." (score: 0.546); CRITICAL: "Well, you should’ve thought about that before. You’ll never get a loan again if ..." (score: 0.618); CRITICAL: "I don’t have time for your excuses. Just pay what you owe, or we’ll have to esca..." (score: 0.634, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -4009,17 +4009,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Karen from the collections department. I'm reaching out regarding..." (score: 0.499); CRITICAL: "I understand the service wasn't up to your expectations, but we still need to ta..." (score: 0.543); CRITICAL: "I appreciate that, but we can’t ignore the payments. It’s important to settle th..." (score: 0.567); CRITICAL: "I really need you to make a payment today to avoid further issues. Let’s get thi..." (score: 0.527)</t>
         </is>
       </c>
     </row>
@@ -4054,17 +4054,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.508</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Emily from the collections team. I'm calling about your account, and..." (score: 0.508); CRITICAL: "I understand. It sounds like you’re dealing with a lot right now. But we do need..." (score: 0.525); CRITICAL: "I completely get that, but it's really important to sort this out quickly. It wo..." (score: 0.326); HIGH: "I appreciate your situation, but I do need you to think about what you can do to..." (score: 0.286)</t>
         </is>
       </c>
     </row>
@@ -4104,27 +4104,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>HIGH: "That's not our issue. You signed the contract, and now you're just making excuse..." (violation_sim: 0.562, severity_gap: 0.048, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out because you..." (score: 0.465); CRITICAL: "I understand that, but you should know that if this isn't taken care of soon, we..." (score: 0.597); CRITICAL: "I'm just saying, it might get to that point. You really need to make a payment s..." (score: 0.591); CRITICAL: "I mean, you can try to set something up, but honestly, if you don't make a payme..." (score: 0.545)</t>
         </is>
       </c>
     </row>
@@ -4149,35 +4149,35 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>HIGH: "I get that, but honestly, you need to pay this off immediately. Waiting just com..." (violation_sim: 0.573, severity_gap: 0.003, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.488); CRITICAL: "I get that, but you signed the agreement. If we don’t hear back from you with a ..." (score: 0.557); CRITICAL: "Honestly, if you don’t pay within the next week, we’ll have no choice but to fil..." (score: 0.539)</t>
         </is>
       </c>
     </row>
@@ -4194,12 +4194,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.486</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4214,15 +4214,15 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>MEDIUM: "Payment plan? Please. You need to pay the full amount right now, or you'll regre..." (violation_sim: 0.600, severity_gap: 0.122)</t>
+          <t>CRITICAL: "Hi, this is Mark from the collections department. I'm reaching out about your ac..." (score: 0.486); CRITICAL: "I understand, but we need to resolve this. You really should be making a payment..." (score: 0.626, near boundary: high and critical); CRITICAL: "Well, unfortunately, our policy is to expect immediate payment when accounts rea..." (score: 0.552); CRITICAL: "I really can’t offer anything less than the full amount right now. It’s importan..." (score: 0.430)</t>
         </is>
       </c>
     </row>
@@ -4234,17 +4234,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.478</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Mike from the collections department. I’m calling about your o..." (score: 0.478); CRITICAL: "I understand it's a challenge, but we really need to settle this soon. Ignoring ..." (score: 0.328); CRITICAL: "I hear you, but I do need something from you before we finish this call. Maybe y..." (score: 0.574); CRITICAL: "Okay, but remember, the longer this goes, the more difficult it might get. It’d ..." (score: 0.365)</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.489); CRITICAL: "I understand, but you need to take care of this balance. We can't just wait arou..." (score: 0.396); CRITICAL: "Look, I really can’t put this on hold. We need full payment as soon as possible ..." (score: 0.567); CRITICAL: "I’m sorry, but that's not really an option at this point. It’s been overdue for ..." (score: 0.400)</t>
         </is>
       </c>
     </row>
@@ -4329,35 +4329,35 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand where you’re coming from, but sorting this out sooner would be real..." (violation_sim: 0.583, severity_gap: 0.012, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I'm calling because your ac..." (score: 0.493); CRITICAL: "That’s unfortunate, but we can't just ignore the debt. If you don’t pay soon, we..." (score: 0.551); CRITICAL: "I understand your situation, but I recommend you make a payment right away. Othe..." (score: 0.572)</t>
         </is>
       </c>
     </row>
@@ -4369,17 +4369,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.478</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4394,15 +4394,15 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections. I'm calling about your account, which cur..." (score: 0.478); HIGH: "I'm really sorry to hear that. Can you tell me more about the service you're ref..." (score: 0.261); CRITICAL: "I understand, and we want to help. However, we do need to get something sorted o..." (score: 0.548); CRITICAL: "I can certainly note down your situation, but I must stress that resolving this ..." (score: 0.525)</t>
         </is>
       </c>
     </row>
@@ -4419,35 +4419,35 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.517</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>HIGH: "Well, that's not my concern. You agreed to the payments. If you don’t pay, just ..." (violation_sim: 0.569, severity_gap: 0.031, near boundary: medium and high); MEDIUM: "Time? You think we have time to wait? If you don't pay today, we're going to hav..." (violation_sim: 0.566, severity_gap: 0.036, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hello, this is Jamie from the collections department. I’m reaching out regarding..." (score: 0.517); CRITICAL: "I understand it can be tough, but I really need to encourage you to address this..." (score: 0.471); CRITICAL: "I really do need something from you before we finish this call. It’s important w..." (score: 0.524)</t>
         </is>
       </c>
     </row>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "This is Mike from the collections department. You owe $1,500 on your account. Yo..." (score: 0.468); CRITICAL: "Look, that's not my problem. You should have thought about that before racking u..." (score: 0.584); CRITICAL: "Time? You think time is going to magically pay off your debt? It’s going to keep..." (score: 0.535); CRITICAL: "Well, figure it out fast. Otherwise, you'll end up with a big black mark on your..." (score: 0.355)</t>
         </is>
       </c>
     </row>
@@ -4504,17 +4504,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out regarding yo..." (score: 0.435); CRITICAL: "I see. We definitely want to resolve this for you. Just to note, we do need to a..." (score: 0.612); CRITICAL: "I understand your concerns. Still, it’s important we sort this out quickly. Can ..." (score: 0.569); CRITICAL: "I appreciate that, but we do need to get something in place today so it doesn’t ..." (score: 0.309)</t>
         </is>
       </c>
     </row>
@@ -4554,12 +4554,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>MEDIUM: "You really should make a payment today if you want to avoid further issues. I me..." (violation_sim: 0.585, severity_gap: 0.098); MEDIUM: "I really encourage you to think about making at least a small payment today. It ..." (violation_sim: 0.634, severity_gap: 0.054, near boundary: low and medium)</t>
+          <t>CRITICAL: "Listen up, you owe us $1,200 and you’re just ignoring it like it doesn’t matter...." (score: 0.512); CRITICAL: "I don’t care about your sob story. You had a contract, and now you're just tryin..." (score: 0.509); CRITICAL: "A payment plan? Ha! Right now, you need to pay everything or you can forget abou..." (score: 0.535); CRITICAL: "Fair? What’s fair is you paying what you owe. You think we’re just going to let ..." (score: 0.535)</t>
         </is>
       </c>
     </row>
@@ -4594,17 +4594,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.428</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from ABC Collections. I'm reaching out regarding your accou..." (score: 0.428); CRITICAL: "I’m really sorry to hear that. It sounds like a tough situation. Let's see how w..." (score: 0.441); CRITICAL: "Absolutely. We can set up a payment plan if that works for you. Would you be abl..." (score: 0.345); CRITICAL: "Of course! How about we start with $25 this month? We can adjust it as your situ..." (score: 0.425)</t>
         </is>
       </c>
     </row>
@@ -4639,17 +4639,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.476</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Lisa from the collections department. I'm reaching out regardi..." (score: 0.476); CRITICAL: "I understand, but we really need you to take care of this right now. It’s been a..." (score: 0.427); CRITICAL: "I hear you, but the payment isn't going to take care of itself. You should at le..." (score: 0.617); CRITICAL: "Look, I really need you to pay something now, or we’re going to have more seriou..." (score: 0.594)</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4689,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>0.487</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>MEDIUM: "That's unfortunate, but you signed an agreement. If we don't receive payment by ..." (violation_sim: 0.586, severity_gap: 0.091); MEDIUM: "Not really. We need this resolved immediately. If you don't pay, we’ll contact y..." (violation_sim: 0.571, severity_gap: 0.072)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.487); CRITICAL: "I'm really sorry to hear that. It’s tough when unexpected things happen. But I d..." (score: 0.301); CRITICAL: "Absolutely, we can work something out. I’d really recommend making at least a pa..." (score: 0.443); CRITICAL: "I understand budgeting can be tight. Just keep in mind, the sooner we can resolv..." (score: 0.449)</t>
         </is>
       </c>
     </row>
@@ -4729,17 +4729,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.442</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Sarah from the collections department. I'm reaching out about ..." (score: 0.442); CRITICAL: "I understand that car repairs can be tough. But we really need to address this b..." (score: 0.396); CRITICAL: "I totally hear you. However, I'd really suggest sorting this out today if you ca..." (score: 0.368); CRITICAL: "That would be great! Just remember, the longer it takes, the more pressure it ca..." (score: 0.369)</t>
         </is>
       </c>
     </row>
@@ -4774,17 +4774,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out about your ..." (score: 0.460); CRITICAL: "I'm really sorry to hear that. It sounds really challenging. I’d like to see if ..." (score: 0.436); CRITICAL: "Absolutely, I can help with that. We can set up a lower monthly payment to make ..." (score: 0.343); CRITICAL: "That sounds reasonable. I can set that up for you. Just to confirm, you'll need ..." (score: 0.331)</t>
         </is>
       </c>
     </row>
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.510</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>MEDIUM: "You should have thought about that before racking up the balance. I suggest you ..." (violation_sim: 0.580, severity_gap: 0.125)</t>
+          <t>CRITICAL: "Listen up, you've got this ridiculous balance of $1,750 that's way overdue. You ..." (score: 0.510); CRITICAL: "Oh, boo-hoo! That's not our issue. You agreed to pay. You think being unemployed..." (score: 0.483); CRITICAL: "Time? You need to take this seriously! Stop making excuses. You're ruining your ..." (score: 0.532); CRITICAL: "No payment plan is gonna save you from the disaster you're creating. You’re on t..." (score: 0.597)</t>
         </is>
       </c>
     </row>
@@ -4864,17 +4864,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.517</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4889,15 +4889,15 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up! You owe us $1,200 and you better pay or you'll be ruined. No one will..." (score: 0.517); CRITICAL: "That’s not my problem! You think sympathy is going to get you out of this? You’l..." (score: 0.545); CRITICAL: "Too bad! You signed the contract. Get your life together or face the consequence..." (score: 0.493)</t>
         </is>
       </c>
     </row>
@@ -4914,35 +4914,35 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>MEDIUM: "Well, I can't guarantee that right now. You really should make a payment immedia..." (violation_sim: 0.565, severity_gap: 0.103); HIGH: "I hear you, but we can't just let this drag on. Your credit will suffer if you d..." (violation_sim: 0.640, severity_gap: 0.070, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi there, this is Sarah from the collections department. I'm reaching out about ..." (score: 0.456); CRITICAL: "I understand that it might be frustrating, but we do need to get this sorted out..." (score: 0.325); CRITICAL: "I see. But honestly, I recommend addressing this today so it doesn’t escalate fu..." (score: 0.332)</t>
         </is>
       </c>
     </row>
@@ -4954,17 +4954,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.466</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections team. I'm reaching out regarding your acc..." (score: 0.466); CRITICAL: "I’m really sorry to hear that. It sounds tough. However, we do need to get this ..." (score: 0.336); CRITICAL: "I appreciate that, but it is important that we come to a resolution today. What ..." (score: 0.306); CRITICAL: "Okay, I understand that. But I really need something from you today to keep this..." (score: 0.306)</t>
         </is>
       </c>
     </row>
@@ -4999,17 +4999,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.408</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Sarah from the collections department. I'm reaching out about ..." (score: 0.408); CRITICAL: "I understand. It looks like you're a bit overdue. Can you share what's been goin..." (score: 0.410); CRITICAL: "I'm really sorry to hear that. It’s important we address this balance, though. I..." (score: 0.504); CRITICAL: "I get that, but I'd really recommend sorting this out today if you can. It will ..." (score: 0.382)</t>
         </is>
       </c>
     </row>
@@ -5044,17 +5044,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.478</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Lisa from Collections. I’m reaching out regarding your outstandin..." (score: 0.478); CRITICAL: "I understand your situation, but you need to resolve this. If you don't make a p..." (score: 0.583); CRITICAL: "Well, if you don’t pay, we might have no choice. It’s better for you to handle t..." (score: 0.516); CRITICAL: "I’m just making sure you realize the urgency. We can’t let this slide forever...." (score: 0.341)</t>
         </is>
       </c>
     </row>
@@ -5089,17 +5089,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.444); CRITICAL: "I’m really sorry to hear that you’re going through a tough time. I want to help ..." (score: 0.422); CRITICAL: "Absolutely, we can start with a lower amount. How does $50 a month sound for you..." (score: 0.337); CRITICAL: "Of course, let’s work together on this. If anything changes, just give us a call..." (score: 0.384)</t>
         </is>
       </c>
     </row>
@@ -5139,17 +5139,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.516</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you really need to take this seriously. If we don’t get your p..." (violation_sim: 0.620, severity_gap: 0.061); MEDIUM: "I’m just stating the facts here. You need to make a payment today, or we’ll have..." (violation_sim: 0.660, severity_gap: 0.128)</t>
+          <t>CRITICAL: "Listen up, you've got an overdue balance of $1,200 and you really need to pay it..." (score: 0.516); CRITICAL: "That's your problem, not mine. You should have thought about that before you rac..." (score: 0.537); CRITICAL: "I don't care about your job search. You're just avoiding your responsibilities. ..." (score: 0.390); CRITICAL: "A plan? Ha! You seriously think you're going to walk away from this? Good luck w..." (score: 0.343)</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.432</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>CRITICAL: "If we don't receive payment, we may have to involve our legal team. I can assure..." (violation_sim: 0.560, severity_gap: 0.067); MEDIUM: "Honestly, if we don’t get a full payment today, I’m going to have to report this..." (violation_sim: 0.639, severity_gap: 0.117)</t>
+          <t>CRITICAL: "Hi there, this is Rachel from the collections department. I'm calling about your..." (score: 0.432); CRITICAL: "I understand, but we do need to resolve the balance today if possible. It’ll hel..." (score: 0.444); CRITICAL: "I get that, but it’s important to try to address this sooner rather than later. ..." (score: 0.394); CRITICAL: "I’d really encourage you to make a payment as soon as you can. It’ll just make t..." (score: 0.498)</t>
         </is>
       </c>
     </row>
@@ -5229,27 +5229,27 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>MEDIUM: "Listen, you owe us $1,500, and it's ridiculous that you haven't paid yet. This n..." (violation_sim: 0.576, severity_gap: 0.035, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen, you're $1,200 behind on your payments. Do you really think ignoring this..." (score: 0.460); CRITICAL: "That’s not my problem. You had a contract, and you need to live up to it. If you..." (score: 0.493); CRITICAL: "A payment plan? Seriously? You just want to put this off indefinitely. Your cred..." (score: 0.546); CRITICAL: "Time? You think that’s going to save you? Get real! You need to pay now or face ..." (score: 0.547)</t>
         </is>
       </c>
     </row>
@@ -5269,17 +5269,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there! This is Alex from the collections team. I'm reaching out about your ac..." (score: 0.447); CRITICAL: "I’m really sorry to hear that. Unexpected expenses can be really stressful. Can ..." (score: 0.395); CRITICAL: "I completely understand. Thank you for sharing that with me. We can definitely w..." (score: 0.472); CRITICAL: "How about we set up a plan where you can pay $125 over the next five months? Wou..." (score: 0.397)</t>
         </is>
       </c>
     </row>
@@ -5314,17 +5314,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.497</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there! This is Alex from the collections department. I see you have an outsta..." (score: 0.497); CRITICAL: "I understand your concern, but we really need to address the balance today. It’s..." (score: 0.546); CRITICAL: "Right, but if we could just sort out the payment now, it would make things a lot..." (score: 0.536); CRITICAL: "I really do need something from you to move forward with this. We can't let it l..." (score: 0.363)</t>
         </is>
       </c>
     </row>
@@ -5364,12 +5364,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.451</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that, but that doesn't change the fact that the payment is due. We need to..." (violation_sim: 0.559, severity_gap: 0.194); MEDIUM: "Well, I can’t just let you avoid payment. If you don't pay something soon, this ..." (violation_sim: 0.612, severity_gap: 0.018, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mike from the collections team. I'm reaching out regarding your a..." (score: 0.451); CRITICAL: "I’m really sorry to hear that. I can only imagine how tough that must be for you..." (score: 0.397); CRITICAL: "I understand. We can set up a payment plan that works for you. Would you be able..." (score: 0.376); CRITICAL: "That sounds reasonable. I can set that up for you right away. You'll receive a c..." (score: 0.307)</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but we really need to get this resolved. You signed an agreement, ..." (violation_sim: 0.569, severity_gap: 0.115); MEDIUM: "I appreciate your situation, but honestly, if you don’t make a payment today, it..." (violation_sim: 0.600, severity_gap: 0.037, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm calling about your accoun..." (score: 0.535); CRITICAL: "I understand, but we really need to find a resolution here. It's important that ..." (score: 0.390); CRITICAL: "I see, but it's essential to sort this out today if possible. I can help you set..." (score: 0.524); CRITICAL: "I understand you're in a tough spot, but just remember that the longer this goes..." (score: 0.346)</t>
         </is>
       </c>
     </row>
@@ -5449,17 +5449,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.514</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Alex calling from Collections. I wanted to discuss your accoun..." (score: 0.514); CRITICAL: "I understand that, but we really need payment. If we don't receive something imm..." (score: 0.582); CRITICAL: "I hear you, but the situation is urgent. We can't just let this sit. You really ..." (score: 0.646, near boundary: high and critical); CRITICAL: "I understand, but you signed for the account, and we have strict policies. Can y..." (score: 0.521)</t>
         </is>
       </c>
     </row>
@@ -5494,17 +5494,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.503</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up, you're 60 days overdue on your account with a balance of $1,200. This..." (score: 0.503); CRITICAL: "That's not my problem. You signed a contract, and if you don't pay, your credit'..." (score: 0.590); CRITICAL: "You need to get your priorities straight. A payment plan? Seriously? You need to..." (score: 0.602); CRITICAL: "Tough or not, that’s not a valid excuse. If you don't settle this now, good luck..." (score: 0.553)</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.184</t>
+          <t>0.473</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but we need to get this balance settled. It's been over 45 da..." (violation_sim: 0.558, severity_gap: 0.184); MEDIUM: "I really need you to make a payment today. Otherwise, we can't guarantee there w..." (violation_sim: 0.643, severity_gap: 0.157); MEDIUM: "Honestly, we prefer full payments. It's your responsibility to pay this, and we ..." (violation_sim: 0.579, severity_gap: 0.162)</t>
+          <t>CRITICAL: "Hello, this is Mike from the collections department. I'm contacting you regardin..." (score: 0.473); CRITICAL: "I'm sorry to hear that. But you really need to pay this off. If not, we may have..." (score: 0.533); CRITICAL: "Look, if you ignore this, we’ll have no choice but to escalate the matter, and y..." (score: 0.470); CRITICAL: "You need to understand that this is serious. We don’t want to ruin your credit, ..." (score: 0.662, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.462</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there! This is Jessica from the collections department. I'm reaching out abou..." (score: 0.462); CRITICAL: "I understand it can be tough, but we do need to sort this out soon. It’s importa..." (score: 0.397); CRITICAL: "I hear you, but I really encourage you to set something up today. The longer we ..." (score: 0.320); CRITICAL: "I get that, but I must stress that addressing it sooner might help avoid late fe..." (score: 0.522)</t>
         </is>
       </c>
     </row>
@@ -5634,12 +5634,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.518</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but if you don’t make a payment, we might have to take legal ..." (violation_sim: 0.579, severity_gap: 0.089); MEDIUM: "Well, it’s your responsibility to pay what you owe. If you can't pay, we might h..." (violation_sim: 0.557, severity_gap: 0.078, near boundary: medium and high); MEDIUM: "Look, we can't just ignore this. You need to understand the seriousness of the m..." (violation_sim: 0.584, severity_gap: 0.067, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections department. I'm reaching out regarding you..." (score: 0.518); CRITICAL: "I'm really sorry to hear that. That sounds tough. I just want to make sure we so..." (score: 0.340); CRITICAL: "I understand, but any payment you can make would definitely help your situation...." (score: 0.476); CRITICAL: "I appreciate that. Just remember, the sooner we can resolve this, the better it’..." (score: 0.456)</t>
         </is>
       </c>
     </row>
@@ -5674,17 +5674,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Mark from Collections. I'm reaching out regarding your account..." (score: 0.458); CRITICAL: "I understand, but we do need to address the balance today. Can you let me know h..." (score: 0.488); CRITICAL: "I get that, but we do need to sort this out. If you could make a payment today, ..." (score: 0.562); CRITICAL: "I completely understand. Still, it’d be best to resolve this today if possible. ..." (score: 0.418)</t>
         </is>
       </c>
     </row>
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand your situation, but the payment is still due. We really need to han..." (violation_sim: 0.660, severity_gap: 0.137); MEDIUM: "Well, we can't just wait indefinitely. It would be best if you could make at lea..." (violation_sim: 0.594, severity_gap: 0.076, near boundary: low and medium); MEDIUM: "Listen, I really need to emphasize that it's crucial to pay something now. Other..." (violation_sim: 0.614, severity_gap: 0.090)</t>
+          <t>CRITICAL: "Hi, this is Laura from the collections department. I'm reaching out about your a..." (score: 0.456); CRITICAL: "I'm really sorry to hear that. It’s understandable that financial challenges can..." (score: 0.508); CRITICAL: "Of course, we can set up a flexible payment plan for you. How about we start wit..." (score: 0.324); CRITICAL: "Absolutely, we can set that up for you. I’ll make a note of the $100 monthly pay..." (score: 0.387)</t>
         </is>
       </c>
     </row>
@@ -5764,17 +5764,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I’m reaching out about your..." (score: 0.499); CRITICAL: "I understand, but you need to prioritize this payment. We can't just let these t..." (score: 0.559); CRITICAL: "Honestly, we really need immediate payment. A payment plan isn’t the best approa..." (score: 0.549); CRITICAL: "I hear you, but we need to see some effort to start making payments. It’s crucia..." (score: 0.596)</t>
         </is>
       </c>
     </row>
@@ -5814,12 +5814,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.556</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but we need to get this resolved. The payment is crucial, and I re..." (violation_sim: 0.626, severity_gap: 0.105)</t>
+          <t>CRITICAL: "Listen up! You owe us $1,500 and you're running out of time. If you don't pay by..." (score: 0.556); CRITICAL: "That's not my problem. You think anyone cares about your excuses? Just pay what ..." (score: 0.556); CRITICAL: "Payment plan? Ha! You need to understand, if you continue like this, no lender w..." (score: 0.540); CRITICAL: "Time? You’re wasting time, and it’s only gonna get worse for you. Pay up now or ..." (score: 0.504)</t>
         </is>
       </c>
     </row>
@@ -5854,17 +5854,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.460</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from XYZ Collections. I'm reaching out regarding your account...." (score: 0.460); CRITICAL: "I get that, but you need to take this seriously. If you don’t pay soon, we may h..." (score: 0.575); CRITICAL: "Well, if you don’t start making payments, it might be the only option we have le..." (score: 0.605); CRITICAL: "Honestly, if you don’t respond soon, I can’t guarantee we won’t escalate this. I..." (score: 0.473)</t>
         </is>
       </c>
     </row>
@@ -5904,12 +5904,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>HIGH: "Life isn’t fair. You need to deal with your responsibilities, or your credit wil..." (violation_sim: 0.568, severity_gap: 0.091)</t>
+          <t>CRITICAL: "Hello, this is Mike from Collections. Your account is seriously overdue with a b..." (score: 0.542); CRITICAL: "That's your problem, isn't it? If you don't pay up soon, your credit will be com..." (score: 0.517); CRITICAL: "No, I've heard enough excuses. You signed the contract. You need to pay right no..." (score: 0.501); CRITICAL: "Work something out? The only thing to work out is how you're going to pay this o..." (score: 0.510)</t>
         </is>
       </c>
     </row>
@@ -5944,17 +5944,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5969,15 +5969,15 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mike from the collections department. I'm calling about your past..." (score: 0.465); CRITICAL: "Listen, you really need to take this seriously. If you don’t pay soon, we might ..." (score: 0.589); CRITICAL: "I’m just saying you have to understand the consequences here. If we have to esca..." (score: 0.596)</t>
         </is>
       </c>
     </row>
@@ -5989,17 +5989,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Lisa from the collections department. I'm reaching out regarding ..." (score: 0.491); CRITICAL: "I understand that, but you need to realize that if you don't pay, we'll have to ..." (score: 0.562); CRITICAL: "Look, if you can't pay, we may have to involve our legal team. It’s your respons..." (score: 0.594); HIGH: "I’m just saying, the longer you wait, the worse it gets for you. I suggest you a..." (score: 0.244)</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>MEDIUM: "I completely understand, and I appreciate your honesty. We can discuss some flex..." (violation_sim: 0.556, severity_gap: 0.128)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm calling about your accoun..." (score: 0.488); CRITICAL: "I understand, but we really need to find a way to get this paid. I mean, I can't..." (score: 0.502); CRITICAL: "Look, I really don’t have the ability to do that. We need full payment immediate..." (score: 0.561); CRITICAL: "Honestly, we can’t hold off any longer. The balance needs to be cleared as soon ..." (score: 0.441)</t>
         </is>
       </c>
     </row>
@@ -6084,35 +6084,35 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.509</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but your account is now in serious trouble. If you don't pay up so..." (violation_sim: 0.620, severity_gap: 0.044, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm reaching out about your..." (score: 0.509); CRITICAL: "I appreciate you sharing that, but the balance needs to be settled. It’s critica..." (score: 0.429); CRITICAL: "Honestly, I can’t guarantee a payment plan at this point. We really need the ful..." (score: 0.556); CRITICAL: "I understand your situation, but we can't hold off. The balance is due, and we e..." (score: 0.633, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.561</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>MEDIUM: "Honestly, at this point, we need full payment right away. I really can’t hold of..." (violation_sim: 0.593, severity_gap: 0.096)</t>
+          <t>CRITICAL: "You owe us $1,250, and this is getting out of hand. Honestly, you better pay up ..." (score: 0.561); CRITICAL: "Yeah, well, that’s not really my concern. You think anyone’s going to give you a..." (score: 0.542); CRITICAL: "Understanding? You think we’re running a charity here? You need to get it togeth..." (score: 0.350); CRITICAL: "Payment plan? What, you want to drag this out another six months? You’re just pu..." (score: 0.507)</t>
         </is>
       </c>
     </row>
@@ -6174,27 +6174,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>R003(high), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>HIGH: "Understanding? Ha! You need to wake up. If you don’t pay soon, you'll never get ..." (violation_sim: 0.576, severity_gap: 0.059, near boundary: medium and high); HIGH: "No plans. This isn't a charity. Your credit score will sink like a rock if you d..." (violation_sim: 0.592, severity_gap: 0.047, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Mark from the collections department. I’m calling regarding your acc..." (score: 0.455); CRITICAL: "I understand, but we really need to sort this out soon. It’s important to get ba..." (score: 0.589); CRITICAL: "Well, it would really help if we could settle something today. The sooner we can..." (score: 0.447); CRITICAL: "I do need something from you before we finish, though. Can we finalize a plan to..." (score: 0.380)</t>
         </is>
       </c>
     </row>
@@ -6214,17 +6214,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.468</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6239,15 +6239,15 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections department. I wanted to discuss your accou..." (score: 0.468); CRITICAL: "I understand that's tough, but we really need to get this sorted out soon. I mea..." (score: 0.571); CRITICAL: "Absolutely, but if we don’t handle this today, it could lead to more problems do..." (score: 0.336)</t>
         </is>
       </c>
     </row>
@@ -6264,12 +6264,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but you signed a contract. We expect payments to be made. It'..." (violation_sim: 0.621, severity_gap: 0.132)</t>
+          <t>CRITICAL: "Hi there, this is Jessica from the collections department. I’m calling about you..." (score: 0.452); CRITICAL: "I get that, but you really need to handle this payment immediately. It’s been ov..." (score: 0.590); CRITICAL: "Honestly, I can't help you with that unless you make at least a partial payment ..." (score: 0.540); CRITICAL: "I really need you to take action today, otherwise, it could hurt your credit...." (score: 0.659, near boundary: high and critical)</t>
         </is>
       </c>
     </row>
@@ -6309,35 +6309,35 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>HIGH: "That's your problem, not ours. You think we care about your sob story? If you do..." (violation_sim: 0.582, severity_gap: 0.039, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Sarah from XYZ Collections. I'm reaching out about your outstanding ..." (score: 0.465); CRITICAL: "I understand, but we really need to resolve this balance. Can you make a payment..." (score: 0.583); CRITICAL: "I get that, but you signed an agreement for this payment. It’s important that we..." (score: 0.525); CRITICAL: "Honestly, we can’t offer you that. We need the full payment as soon as possible ..." (score: 0.565)</t>
         </is>
       </c>
     </row>
@@ -6354,17 +6354,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.462</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that, but you really need to take this seriously. If you don’t pay by tomo..." (violation_sim: 0.600, severity_gap: 0.052)</t>
+          <t>CRITICAL: "Hi there, I'm calling from the collections department about your account. I see ..." (score: 0.462); CRITICAL: "I'm really sorry to hear that. Let’s see what we can do to help you through this..." (score: 0.499); CRITICAL: "I completely understand. How about we start with a small amount? Even $50 a mont..." (score: 0.303)</t>
         </is>
       </c>
     </row>
@@ -6399,12 +6399,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.554</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>HIGH: "Well, that's really not my concern. You signed a contract, and it's time to pay ..." (violation_sim: 0.578, severity_gap: 0.105)</t>
+          <t>CRITICAL: "Hey, this is Mark from Collections. You owe us $1,500. You really need to get yo..." (score: 0.554); CRITICAL: "That’s not our problem. You’re just sitting there ignoring your debts while we w..." (score: 0.622); CRITICAL: "A payment plan? Seriously? You think we’re just going to let you drag this out f..." (score: 0.612); CRITICAL: "Time? You need to realize that this isn’t just a suggestion. It’s your duty to p..." (score: 0.533)</t>
         </is>
       </c>
     </row>
@@ -6444,27 +6444,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.536</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>R004(medium), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that, but you signed the agreement. If you don't pay soon, we're going to ..." (violation_sim: 0.588, severity_gap: 0.078); HIGH: "I’m just saying, we need to resolve this. If you don’t pay, your credit will be ..." (violation_sim: 0.662, severity_gap: 0.023, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections. I'm calling about your overdue balance of..." (score: 0.536); CRITICAL: "I understand your situation, but we can't just let it slide. If you don't pay up..." (score: 0.547); CRITICAL: "Well, if you can't pay, you should know that sometimes we have to report these m..." (score: 0.527); CRITICAL: "Time is running out. We can’t keep waiting forever. It’s better to pay something..." (score: 0.604)</t>
         </is>
       </c>
     </row>
@@ -6484,17 +6484,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.534</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6509,15 +6509,15 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hey there, I'm calling about your overdue balance of $1,200. You really need to ..." (score: 0.534); CRITICAL: "Well, that's not our fault, is it? You think we care about your personal problem..." (score: 0.601); CRITICAL: "Honestly, it doesn't matter. You'll be on the street before you know it if you d..." (score: 0.498)</t>
         </is>
       </c>
     </row>
@@ -6529,17 +6529,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.515</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm calling regarding your ..." (score: 0.515); CRITICAL: "Well, that's unfortunate, but you need to understand that we cannot just let thi..." (score: 0.562); CRITICAL: "I’m just telling you how serious this is. If this debt isn't cleared up soon, it..." (score: 0.580); CRITICAL: "Time is running out. You need to take this seriously if you want to avoid furthe..." (score: 0.558)</t>
         </is>
       </c>
     </row>
@@ -6574,17 +6574,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.472</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Jamie from the collections department. I'm reaching out regarding..." (score: 0.472); CRITICAL: "Absolutely, we can definitely help with that. Would a monthly payment of $150 wo..." (score: 0.339); CRITICAL: "That’s completely understandable. I’ll set you up with that payment plan. You’ll..." (score: 0.536)</t>
         </is>
       </c>
     </row>
@@ -6619,17 +6619,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.458); CRITICAL: "I'm really sorry to hear that. It's tough out there. Let’s see what we can do to..." (score: 0.478); CRITICAL: "Not at all! We definitely want to work with you. We can set up a payment plan th..." (score: 0.358); CRITICAL: "We can start with a smaller payment, like $100 a month, for the next few months...." (score: 0.361)</t>
         </is>
       </c>
     </row>
@@ -6664,17 +6664,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.483</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6689,15 +6689,15 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm reaching out regarding ..." (score: 0.483); CRITICAL: "I understand you're in a tough spot, but we've been more than patient. If we don..." (score: 0.471); CRITICAL: "Look, I get it, but this is serious. We can't let this slide. If you don’t pay, ..." (score: 0.557)</t>
         </is>
       </c>
     </row>
@@ -6714,12 +6714,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.097</t>
+          <t>0.535</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>MEDIUM: "Look, I really need to stress the importance of a payment now. Delaying this wil..." (violation_sim: 0.578, severity_gap: 0.097)</t>
+          <t>CRITICAL: "Hello, this is Mark from Collections. I'm calling about your account with a bala..." (score: 0.535); CRITICAL: "I understand, but you’ve got to understand that if this isn’t settled soon, I’ll..." (score: 0.536); CRITICAL: "Well, it’s either that or we take legal action. You really need to figure someth..." (score: 0.555); CRITICAL: "Honestly, the best option is to pay it off quickly. The longer you wait, the wor..." (score: 0.476)</t>
         </is>
       </c>
     </row>
@@ -6759,12 +6759,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.360</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but it's very important that we resolve this soon. We can't just w..." (violation_sim: 0.590, severity_gap: 0.083); MEDIUM: "Look, I really need you to make some sort of payment today. Otherwise, this will..." (violation_sim: 0.645, severity_gap: 0.051, near boundary: low and medium); MEDIUM: "I strongly urge you to pay the balance as soon as possible. We really don’t have..." (violation_sim: 0.589, severity_gap: 0.174)</t>
+          <t>CRITICAL: "Hi, this is Carla from Collections. I see you're behind on a balance of $1,200. ..." (score: 0.360); CRITICAL: "That’s your problem, not ours. If you don’t pay up, your credit score will be ru..." (score: 0.555); CRITICAL: "No, you signed a contract. You owe us money. It’s not our fault you can’t manage..." (score: 0.597); CRITICAL: "I don’t care about your excuses. Pay the full amount by Friday or it’s going to ..." (score: 0.559)</t>
         </is>
       </c>
     </row>
@@ -6799,17 +6799,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.486</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.486); CRITICAL: "I understand, but we really need to get this resolved soon. It's been a while an..." (score: 0.386); CRITICAL: "I totally get it, but I do need to find a way to get this sorted out today. What..." (score: 0.386); HIGH: "Okay, but I really encourage you to think about it. The longer this goes unresol..." (score: 0.270)</t>
         </is>
       </c>
     </row>
@@ -6849,12 +6849,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.449</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>MEDIUM: "Honestly, if you don’t pay at least something by the end of the week, we might n..." (violation_sim: 0.560, severity_gap: 0.112)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.449); CRITICAL: "We can definitely look at a payment plan. How about we set it up so you can pay ..." (score: 0.366); HIGH: "Great! I’ll set that up for you. Just a reminder, if you ever feel you need to a..." (score: 0.286)</t>
         </is>
       </c>
     </row>
@@ -6894,12 +6894,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.103</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>MEDIUM: "I completely understand. If you could make a small payment today, it would reall..." (violation_sim: 0.579, severity_gap: 0.103)</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I’m calling about your outs..." (score: 0.493); CRITICAL: "I understand, but you really need to make a payment. This balance is getting pre..." (score: 0.618); CRITICAL: "Honestly, we prefer full payment right away. Delaying just makes it worse for yo..." (score: 0.492); CRITICAL: "I hear you, but we really don’t have any flexibility here. I strongly recommend ..." (score: 0.504)</t>
         </is>
       </c>
     </row>
@@ -6939,27 +6939,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>MEDIUM: "I totally understand. But, you know, the sooner we can get this sorted out, the ..." (violation_sim: 0.569, severity_gap: 0.052, near boundary: medium and high); MEDIUM: "I hear you, but it’s important to take some action. It’ll help prevent further c..." (violation_sim: 0.578, severity_gap: 0.095)</t>
+          <t>CRITICAL: "Hi there, this is Laura from the collections department. I'm reaching out about ..." (score: 0.494); CRITICAL: "I understand, but we really need to see some payment soon. I can't stress enough..." (score: 0.575); CRITICAL: "Honestly, we need full payment immediately. Otherwise, this could lead to more s..." (score: 0.550); CRITICAL: "I really can't set up anything unless we get some sort of payment right now. You..." (score: 0.515)</t>
         </is>
       </c>
     </row>
@@ -6984,17 +6984,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7004,15 +7004,15 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you need to take this seriously. If you don’t make a payment s..." (violation_sim: 0.629, severity_gap: 0.012)</t>
+          <t>CRITICAL: "Listen, you're $1,500 behind on your payments. This is getting ridiculous. You n..." (score: 0.493); CRITICAL: "That's not my concern. If you don’t pay soon, you'll be blacklisted. No bank wil..." (score: 0.553); CRITICAL: "Time? You think time is gonna fix this? It just makes it worse. You’re already o..." (score: 0.533); CRITICAL: "Understanding? Please. You signed the contract. You owe this money, and if you d..." (score: 0.564)</t>
         </is>
       </c>
     </row>
@@ -7029,35 +7029,35 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.515</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>HIGH: "That's not an excuse. If you don't pay now, you'll ruin your credit for life. Yo..." (violation_sim: 0.561, severity_gap: 0.017, near boundary: medium and high); MEDIUM: "Help you? This is a joke. You signed a contract. We need full payment today, or ..." (violation_sim: 0.629, severity_gap: 0.149)</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out regarding y..." (score: 0.515); CRITICAL: "I understand, but you really need to sort this out. We're expecting the full amo..." (score: 0.498); CRITICAL: "Honestly, we can't wait that long. You need to pay the full amount right away. O..." (score: 0.572); CRITICAL: "I understand your situation, but we need to see some action. Please let me know ..." (score: 0.565)</t>
         </is>
       </c>
     </row>
@@ -7069,17 +7069,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.523</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hey there, this is Mike from the collections department. I see your account is $..." (score: 0.523); CRITICAL: "Look, I get it, but that’s not our problem. You’re on the verge of ruining your ..." (score: 0.485); CRITICAL: "Time? You think you can just buy time? If you don’t pay this, good luck trying t..." (score: 0.473); HIGH: "Well, your best isn't good enough. Just remember, ignoring this won’t make it go..." (score: 0.255)</t>
         </is>
       </c>
     </row>
@@ -7114,17 +7114,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.454</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello! This is Jenna from the collections department. I'm reaching out regarding..." (score: 0.454); CRITICAL: "I’m really sorry to hear that. It sounds like you’ve had a tough time. Can I ask..." (score: 0.490); CRITICAL: "Absolutely, I can help with that. We can set up a plan that fits your budget. Fo..." (score: 0.301); CRITICAL: "Of course, we want to make this as manageable for you as possible. Let’s set up ..." (score: 0.395)</t>
         </is>
       </c>
     </row>
@@ -7159,17 +7159,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections team. I'm reaching out about your acco..." (score: 0.456); CRITICAL: "I'm really sorry to hear that. That must be really stressful. Would you like to ..." (score: 0.501); CRITICAL: "Of course. We can explore setting up a temporary payment plan that fits your bud..." (score: 0.391); CRITICAL: "Absolutely, I’ll send over the details for that plan. Just remember to keep us u..." (score: 0.345)</t>
         </is>
       </c>
     </row>
@@ -7209,27 +7209,27 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.435</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>low and medium</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>MEDIUM: "I really need you to make a full payment immediately. Otherwise, this will just ..." (violation_sim: 0.600, severity_gap: 0.079, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.435); CRITICAL: "I understand that, but we really need to resolve this payment as soon as possibl..." (score: 0.506); CRITICAL: "I get it, but the balance is due. We can't just wait around. I really need you t..." (score: 0.601); CRITICAL: "I mean, a payment plan is nice, but it's really important to at least make some ..." (score: 0.575)</t>
         </is>
       </c>
     </row>
@@ -7254,27 +7254,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>HIGH: "That's not our problem. You signed a contract. If you don’t pay soon, you’ll rui..." (violation_sim: 0.561, severity_gap: 0.040, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi there, this is Lisa from the collections department. I'm reaching out about y..." (score: 0.475); CRITICAL: "I understand that things can get hectic. But we need to discuss this balance. It..." (score: 0.412); CRITICAL: "I hear you, but we can’t let this drag on for too long. You really should look i..." (score: 0.573); CRITICAL: "I need to stress that the sooner we resolve this, the better it will be for you...." (score: 0.448)</t>
         </is>
       </c>
     </row>
@@ -7304,7 +7304,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.467</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>R004(medium), R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand your situation, but you signed a contract and the payment is due. I..." (violation_sim: 0.585, severity_gap: 0.120); CRITICAL: "I’m just saying, if you don’t pay, we’ll have to escalate this. Our lawyers will..." (violation_sim: 0.554, severity_gap: 0.127); MEDIUM: "Well, that’s unfortunate, but it doesn’t change the fact that you owe us. I can’..." (violation_sim: 0.619, severity_gap: 0.079, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi there, this is Alex from the collections department. I'm calling about your o..." (score: 0.467); CRITICAL: "I understand you have a balance to settle. To avoid further issues, we really ne..." (score: 0.635, near boundary: high and critical); CRITICAL: "We really can't hold off on this. You signed the agreement, and we need you to p..." (score: 0.580); CRITICAL: "Honestly, I can’t offer anything more than a full payment today. It's really imp..." (score: 0.544)</t>
         </is>
       </c>
     </row>
@@ -7349,12 +7349,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.365</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>R001(critical), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>CRITICAL: "That's unfortunate, but you really need to pay this off. If not, we might have t..." (violation_sim: 0.558, severity_gap: 0.062); MEDIUM: "I understand, but the debt still needs to be paid. You should seriously think ab..." (violation_sim: 0.570, severity_gap: 0.046, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen up, you’re sitting on a massive balance of $1,500 and you’re just ignorin..." (score: 0.365); CRITICAL: "Tough times? That’s your excuse? You think that gives you the right to just not ..." (score: 0.540); CRITICAL: "Time? You think you can just waltz away from this? You’ll never get another loan..." (score: 0.537); CRITICAL: "Work something out? How about you just pay what you owe? This is your mess, and ..." (score: 0.542)</t>
         </is>
       </c>
     </row>
@@ -7384,17 +7384,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.464</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Lisa from the collections department. I’m reaching out about y..." (score: 0.464); CRITICAL: "I understand, but we can't just wait around while the balance sits. It's really ..." (score: 0.555); CRITICAL: "Unfortunately, we need you to make some sort of payment immediately. If you don’..." (score: 0.636, near boundary: high and critical); CRITICAL: "Look, I understand your situation, but I really can’t stress enough how urgent t..." (score: 0.615)</t>
         </is>
       </c>
     </row>
@@ -7434,27 +7434,27 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.543</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>MEDIUM: "That's not my problem. You owe the money and we've got bills to pay too. If you ..." (violation_sim: 0.593, severity_gap: 0.016, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Jamie from the collections department. I'm calling about your acc..." (score: 0.543); CRITICAL: "I'm sorry to hear that. It must be tough. But we really need to address this soo..." (score: 0.313); CRITICAL: "I understand, but I do need something from you to keep this from escalating. May..." (score: 0.486); CRITICAL: "I see. Just keep in mind, the longer this goes, the more difficult it gets to re..." (score: 0.305)</t>
         </is>
       </c>
     </row>
@@ -7479,17 +7479,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.484</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you need to understand this is serious. If we don't get paymen..." (violation_sim: 0.622, severity_gap: 0.024); MEDIUM: "I'm sorry, but that’s how it works. You have a financial obligation, and if this..." (violation_sim: 0.592, severity_gap: 0.061, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Mike from the collections department. I’m calling about your acco..." (score: 0.484); CRITICAL: "I understand that, but you signed an agreement. If this isn't taken care of, we ..." (score: 0.534); CRITICAL: "Look, if you don’t pay up soon, we have no choice but to escalate this. We might..." (score: 0.509); CRITICAL: "I’m just saying, if this continues, it's not going to end well for you. We can't..." (score: 0.305)</t>
         </is>
       </c>
     </row>
@@ -7519,17 +7519,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up, you're over $1,200 past due. You better pay up now or you'll be wreck..." (score: 0.491); CRITICAL: "That's not my problem. You thought you could just ignore this and it would go aw..." (score: 0.543); CRITICAL: "A payment plan? Seriously? You think that's gonna help? This is gonna ruin your ..." (score: 0.604); CRITICAL: "Well, you should have thought of that before you got into this mess. If you don’..." (score: 0.609)</t>
         </is>
       </c>
     </row>
@@ -7569,27 +7569,27 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>R004(medium), R001(low)</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you need to resolve this debt. We can’t just let these things ..." (violation_sim: 0.609, severity_gap: 0.015, near boundary: medium and high); LOW: "Honestly, I think you need to pay this off immediately to avoid further issues. ..." (violation_sim: 0.603, severity_gap: 0.020, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.452); HIGH: "I'm really sorry to hear that. Would you be comfortable sharing a bit more about..." (score: 0.266); CRITICAL: "That sounds really difficult, and I completely understand. We can definitely wor..." (score: 0.440); CRITICAL: "I can help you with that. How about we set up a plan for $100 a month until the ..." (score: 0.410)</t>
         </is>
       </c>
     </row>
@@ -7609,17 +7609,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.469</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -7634,15 +7634,15 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello! This is Sarah from the collections department. I'm calling because your a..." (score: 0.469); CRITICAL: "I’m really sorry to hear that. Family emergencies can be very stressful. Would y..." (score: 0.430); CRITICAL: "Absolutely, we can set up a payment plan. How does a monthly payment of $100 sou..." (score: 0.399); CRITICAL: "Great! I’ll go ahead and put that plan in place for you. You’ll receive a confir..." (score: 0.306)</t>
         </is>
       </c>
     </row>
@@ -7654,17 +7654,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.523</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Lisa from Collections. I'm calling regarding your account with a ..." (score: 0.523); CRITICAL: "That's unfortunate, but you signed the contract. If we don't receive payment, I ..." (score: 0.545); CRITICAL: "Well, if I don’t hear from you soon, I’ll have no choice but to move forward wit..." (score: 0.453); CRITICAL: "I just need to make it clear that we will be taking action if this isn't resolve..." (score: 0.453)</t>
         </is>
       </c>
     </row>
@@ -7704,27 +7704,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.474</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>MEDIUM: "You really need to pay something right now. If this goes to court, it’ll ruin yo..." (violation_sim: 0.639, severity_gap: 0.012, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.474); CRITICAL: "I completely understand. We definitely want to help you through this. We can loo..." (score: 0.484); CRITICAL: "We can do a plan where you pay $130 a month for the next five months. Would that..." (score: 0.344)</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7749,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.483</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you really need to take care of this. The total balance is sti..." (violation_sim: 0.629, severity_gap: 0.178)</t>
+          <t>CRITICAL: "Hello, this is Jamie from the collections department. I'm reaching out regarding..." (score: 0.483); CRITICAL: "I'm really sorry to hear that. I can only imagine how stressful that must be for..." (score: 0.523); CRITICAL: "Absolutely. We can set up a plan that works for you. Would a monthly payment of ..." (score: 0.337); HIGH: "Great! I'll set that up for you. You'll receive a confirmation email shortly. Is..." (score: 0.243)</t>
         </is>
       </c>
     </row>
@@ -7789,17 +7789,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.504</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7814,15 +7814,15 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I’m calling about your acco..." (score: 0.504); CRITICAL: "I understand that, but if this payment isn't made soon, I’m afraid we’re going t..." (score: 0.611); CRITICAL: "Look, if you don’t handle this, we have no choice but to consider legal action. ..." (score: 0.408)</t>
         </is>
       </c>
     </row>
@@ -7839,27 +7839,27 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.498</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>HIGH: "Listen up, you're way behind on your account. You owe us $1,500, and this nonsen..." (violation_sim: 0.570, severity_gap: 0.079, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Linda from the collections department. I’m calling regarding your..." (score: 0.498); CRITICAL: "I understand your concern, but we need to address this payment. It’s been overdu..." (score: 0.586); CRITICAL: "I get it, but you really should try to find a way to meet your obligations. If y..." (score: 0.548); CRITICAL: "Look, the account is in collections, and we need to prioritize getting payments...." (score: 0.581)</t>
         </is>
       </c>
     </row>
@@ -7884,12 +7884,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.082</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -7904,15 +7904,15 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>HIGH: "Tough or not, you signed a contract. You can't just ignore your debts. If you do..." (violation_sim: 0.556, severity_gap: 0.082); MEDIUM: "A payment plan? That's cute, but we need the full amount and we need it yesterda..." (violation_sim: 0.618, severity_gap: 0.151)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.447); CRITICAL: "I'm really sorry to hear that. It's a tough situation. Let’s see what we can do ..." (score: 0.468); CRITICAL: "I completely understand. We can definitely look into setting up a payment plan t..." (score: 0.433); HIGH: "Absolutely, we can start with a smaller amount, like, say, $100 a month. Does th..." (score: 0.289)</t>
         </is>
       </c>
     </row>
@@ -7929,27 +7929,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.381</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>HIGH: "Well, that's not my problem. You should have thought about that before you racke..." (violation_sim: 0.581, severity_gap: 0.038, near boundary: medium and high)</t>
+          <t>CRITICAL: "Listen up, you're way past due on that $1,200 bill. You think this is a joke?..." (score: 0.381); CRITICAL: "Not my problem! You signed for this, and if you don’t pay, your credit's gonna b..." (score: 0.575); CRITICAL: "Time? You’re kidding, right? If you don’t handle this now, no one’s gonna lend y..." (score: 0.491); CRITICAL: "Options? Your best option is to come up with the cash today. Otherwise, get read..." (score: 0.472)</t>
         </is>
       </c>
     </row>
@@ -7969,17 +7969,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Alex from the collections department. I see you have a balance of $4..." (score: 0.444); CRITICAL: "I totally understand that life can throw curveballs. But, I do need to emphasize..." (score: 0.298); CRITICAL: "I hear you, but delaying this might just make it harder down the road. Maybe we ..." (score: 0.547); CRITICAL: "Absolutely, but I really would urge you to think about starting a plan today. It..." (score: 0.307)</t>
         </is>
       </c>
     </row>
@@ -8014,17 +8014,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Alex from the collections department. I'm calling about your o..." (score: 0.463); CRITICAL: "I understand, but this balance really needs to be paid off immediately. You real..." (score: 0.550); CRITICAL: "I can’t just let it slide. If you don't pay it all right now, it’s going to impa..." (score: 0.564); CRITICAL: "Look, I really need you to understand the urgency here. It’s best to settle the ..." (score: 0.444)</t>
         </is>
       </c>
     </row>
@@ -8064,35 +8064,35 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.516</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>MEDIUM: "I can't really help you with that. It's important to settle this debt as soon as..." (violation_sim: 0.586, severity_gap: 0.058, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections team. I see your balance is $1,200 and..." (score: 0.516); CRITICAL: "I understand your situation, but we can't keep waiting. If you don't settle this..." (score: 0.507); CRITICAL: "It's just a matter of time before we escalate this if you don’t pay something. I..." (score: 0.620)</t>
         </is>
       </c>
     </row>
@@ -8114,12 +8114,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8129,15 +8129,15 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>R001(critical), R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>CRITICAL: "I understand, but ignoring this won’t help. If you don't pay soon, we’ll have to..." (violation_sim: 0.629, severity_gap: 0.013); MEDIUM: "I mean we can't just let this go. If we don’t hear back from you, we might have ..." (violation_sim: 0.559, severity_gap: 0.034); MEDIUM: "I hear you, but we need some form of commitment. If this isn't resolved soon, we..." (violation_sim: 0.576, severity_gap: 0.021)</t>
+          <t>CRITICAL: "Hi, this is Sarah from Collections. I'm calling about your account. You have a b..." (score: 0.489); CRITICAL: "I understand, but you really need to take this seriously. If you don't settle th..." (score: 0.519); CRITICAL: "Look, I’m just telling you how serious this is. If you don’t pay, we could escal..." (score: 0.520)</t>
         </is>
       </c>
     </row>
@@ -8149,17 +8149,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.513</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -8182,7 +8182,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out regarding yo..." (score: 0.513); CRITICAL: "I completely understand that it's a tough situation, but we really need to get t..." (score: 0.483); CRITICAL: "I understand that, and I truly sympathize. I just need to emphasize that it woul..." (score: 0.304); CRITICAL: "I see. But really, if you could make any payment today, it would help us both av..." (score: 0.557)</t>
         </is>
       </c>
     </row>
@@ -8194,17 +8194,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.503</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up, you've got a balance of $1,200 that's 60 days overdue. You need to ge..." (score: 0.503); CRITICAL: "Oh please, that's just an excuse. If you don't pay this, your whole life is gonn..." (score: 0.612); CRITICAL: "A payment plan? You think I'm here to babysit you? You signed a contract; honor ..." (score: 0.490); CRITICAL: "Fair? You think this is fair? You keep ignoring your debt while I have to deal w..." (score: 0.544)</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.429</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "This is Rick from Collections. You're currently $1,200 behind on your account. W..." (score: 0.429); CRITICAL: "That's not my problem. You should've thought about that before falling behind. I..." (score: 0.577); CRITICAL: "Time? You think you deserve time? We can't just wait around. If you don’t pay to..." (score: 0.519); CRITICAL: "Why should I compromise for you? If you don’t take care of this, no one will len..." (score: 0.598)</t>
         </is>
       </c>
     </row>
@@ -8289,17 +8289,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>MEDIUM: "That’s unfortunate, but we can’t just keep waiting. If you don’t make a payment ..." (violation_sim: 0.578, severity_gap: 0.026); MEDIUM: "Time is running out. If you don’t pay now, this will reflect poorly on your cred..." (violation_sim: 0.633, severity_gap: 0.042, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Jamie from the collections department. I’m calling about your acc..." (score: 0.494); CRITICAL: "I’m really sorry to hear that. I can imagine how difficult that must be. Let's s..." (score: 0.424); CRITICAL: "I completely understand. It’s tough out there. We can definitely discuss setting..." (score: 0.458); CRITICAL: "Absolutely. How about we set up a plan where you can make smaller monthly paymen..." (score: 0.355)</t>
         </is>
       </c>
     </row>
@@ -8334,27 +8334,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.473</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>R003(high), R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>HIGH: "Listen up, you're seriously behind on your account. You owe us $1,150 and if you..." (violation_sim: 0.578, severity_gap: 0.015, near boundary: medium and high); HIGH: "Well, you should have thought about that before. You’ll wish you had acted soone..." (violation_sim: 0.559, severity_gap: 0.065, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.473); CRITICAL: "I'm really sorry to hear that. I can understand how challenging that must be. Le..." (score: 0.426); CRITICAL: "That's completely understandable. We can explore a payment plan that fits your c..." (score: 0.453); HIGH: "Absolutely. I can set up a monthly plan for you. Let's say you start with $50 a ..." (score: 0.249)</t>
         </is>
       </c>
     </row>
@@ -8374,17 +8374,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.522</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections regarding your account. You currently owe ..." (score: 0.522); CRITICAL: "That's unfortunate, but we can't just let this slide. If we don’t receive the pa..." (score: 0.649, near boundary: high and critical); CRITICAL: "I understand, but you need to understand, this is serious. If you don’t pay, we ..." (score: 0.504); CRITICAL: "Look, we need a commitment from you now. Otherwise, I’ll have no choice but to e..." (score: 0.449)</t>
         </is>
       </c>
     </row>
@@ -8419,17 +8419,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.545</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "This is John from Collections regarding your account. You owe $1,500, and it's a..." (score: 0.545); CRITICAL: "Honestly, that sounds like your problem. If you don't pay up, your credit is goi..." (score: 0.491); CRITICAL: "Work something out? Why should I? You think we're a charity? Pay the full amount..." (score: 0.425); CRITICAL: "Help? You think you're special? Everyone has problems. The longer you wait, the ..." (score: 0.446)</t>
         </is>
       </c>
     </row>
@@ -8469,12 +8469,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.452</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>HIGH: "That’s not my problem. You owe us money, and if you don’t pay up, your credit’s ..." (violation_sim: 0.614, severity_gap: 0.096)</t>
+          <t>CRITICAL: "Hi, this is Sarah from the collections department. I'm reaching out about your a..." (score: 0.452); CRITICAL: "I understand, but we do need to get this payment sorted out. It’s been a while, ..." (score: 0.569); CRITICAL: "I hear you, but it’s important to address this quickly. The longer you wait, the..." (score: 0.311); CRITICAL: "I really encourage you to think about making a partial payment today. It would h..." (score: 0.517)</t>
         </is>
       </c>
     </row>
@@ -8514,12 +8514,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>MEDIUM: "As of now, we really need immediate payment or we’ll have no choice but to take ..." (violation_sim: 0.669, severity_gap: 0.116)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm calling regarding your..." (score: 0.475); CRITICAL: "I understand that, but you really need to understand the seriousness of this. If..." (score: 0.476); CRITICAL: "You don't seem to be grasping how urgent this is. If you can't pay this balance,..." (score: 0.586); CRITICAL: "A payment plan isn't going to help if we need to take legal action. I really sug..." (score: 0.540)</t>
         </is>
       </c>
     </row>
@@ -8554,17 +8554,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.533</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up, you're way overdue on that $1,500. If you don't pay by tomorrow, your..." (score: 0.533); CRITICAL: "That's really not my concern. You owe us, and you've had more than enough time. ..." (score: 0.578); CRITICAL: "No, that's not how this works. You either come up with the full amount right now..." (score: 0.367); CRITICAL: "Well, you're sure on that path unless you jump on it today. It’ll be a nightmare..." (score: 0.495)</t>
         </is>
       </c>
     </row>
@@ -8604,12 +8604,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>HIGH: "That's your problem, not mine. You need to understand that your credit will be s..." (violation_sim: 0.573, severity_gap: 0.127); MEDIUM: "Understanding? You should’ve thought of that before running up this bill. Time’s..." (violation_sim: 0.555, severity_gap: 0.010, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections. I'm reaching out about your outstanding b..." (score: 0.494); CRITICAL: "I understand that, but you really need to take care of this. We can't keep your ..." (score: 0.501); CRITICAL: "I hear you, but honestly, the longer you wait, the worse it gets. I can’t help y..." (score: 0.562); CRITICAL: "Look, I really need you to come up with at least some payment right now. Otherwi..." (score: 0.584)</t>
         </is>
       </c>
     </row>
@@ -8644,17 +8644,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.457</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8669,15 +8669,15 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Listen up, you're three months behind on your payments totaling $1,200. If you d..." (score: 0.457); CRITICAL: "That's your problem, not mine. You signed the agreement, and you need to face th..." (score: 0.482); CRITICAL: "You think we have time for that? If you don't pay us now, you're going to regret..." (score: 0.616)</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.443</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>R004(medium), R001(critical)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>MEDIUM: "I'm sorry to hear that, but you signed a contract. If you don't pay, we'll have ..." (violation_sim: 0.576, severity_gap: 0.028); CRITICAL: "Options? It's either you pay up or we send this to our lawyers, and then it beco..." (violation_sim: 0.557, severity_gap: 0.054)</t>
+          <t>CRITICAL: "Hello, this is Jessica from the collections department. I'm reaching out about y..." (score: 0.443); CRITICAL: "I understand, but we really need payment on this. You signed a contract agreeing..." (score: 0.563); CRITICAL: "Look, we cannot just put this off. If you don't pay today, you might face furthe..." (score: 0.646, near boundary: high and critical); CRITICAL: "We really need the payment in full. It's really important to address this right ..." (score: 0.551)</t>
         </is>
       </c>
     </row>
@@ -8739,12 +8739,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>MEDIUM: "I get that you're having a tough time, but we need you to make at least a partia..." (violation_sim: 0.623, severity_gap: 0.153); MEDIUM: "We really can’t just wait indefinitely. It's best if you handle this as soon as ..." (violation_sim: 0.583, severity_gap: 0.014, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I’m reaching out about you..." (score: 0.456); CRITICAL: "I understand the amount is overdue, and we need to resolve this. If you could ju..." (score: 0.557); CRITICAL: "I get that, but the payment is necessary. It's important that we settle this as ..." (score: 0.565); CRITICAL: "Well, I really need to stress the importance of immediate payment. I can't guara..." (score: 0.529)</t>
         </is>
       </c>
     </row>
@@ -8784,17 +8784,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.530</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8804,15 +8804,15 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but you need to realize that if you don’t pay us, we’ll have no ch..." (violation_sim: 0.576, severity_gap: 0.013); MEDIUM: "Honestly, after a certain point, we’ll have to involve our lawyers. You really s..." (violation_sim: 0.665, severity_gap: 0.020)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.530); CRITICAL: "I'm sorry to hear that. I understand how unexpected expenses can pile up. It's i..." (score: 0.563); CRITICAL: "I get that, but I do need to emphasize that we should resolve this sooner rather..." (score: 0.366); CRITICAL: "It would be great to have a solution before then, just so we can prevent any com..." (score: 0.314)</t>
         </is>
       </c>
     </row>
@@ -8829,12 +8829,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.431</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand that, but we really need to find a way to settle this. I can't stre..." (violation_sim: 0.569, severity_gap: 0.095); MEDIUM: "I appreciate your situation, but not resolving this quickly can lead to more ser..." (violation_sim: 0.660, severity_gap: 0.070, near boundary: low and medium)</t>
+          <t>CRITICAL: "Hi there! This is Lisa calling from the collections department regarding your ac..." (score: 0.431); CRITICAL: "I’m really sorry to hear that. I can imagine how stressful that must be. Let's s..." (score: 0.538); CRITICAL: "I completely understand. Would you be open to discussing a payment plan? We can ..." (score: 0.475); CRITICAL: "That's okay! We can start with a low amount, maybe $50 a month, and adjust it la..." (score: 0.353)</t>
         </is>
       </c>
     </row>
@@ -8874,12 +8874,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.477</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>MEDIUM: "I completely understand. But it is important to sort this out soon. We can look ..." (violation_sim: 0.595, severity_gap: 0.146)</t>
+          <t>CRITICAL: "Hello, this is Sarah from Collections. I’m reaching out about your account. You ..." (score: 0.477); CRITICAL: "I get that, but honestly, you need to pay this off. If you don’t settle this soo..." (score: 0.523); CRITICAL: "If I have to escalate it, it could lead to legal action. It's better if we resol..." (score: 0.417); CRITICAL: "Well, if you don’t want your family or employer involved, I suggest you take thi..." (score: 0.584)</t>
         </is>
       </c>
     </row>
@@ -8914,17 +8914,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.485</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Jamie from Collections. I'm calling about your account balance of $1..." (score: 0.485); CRITICAL: "I understand, but we need to talk about getting this payment made. It's importan..." (score: 0.629, near boundary: high and critical); CRITICAL: "Look, I can’t just ignore the fact that this is overdue. We really need you to m..." (score: 0.588); CRITICAL: "I can help you, but it needs to start with a payment. This isn't going to get ea..." (score: 0.456)</t>
         </is>
       </c>
     </row>
@@ -8959,17 +8959,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.463</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8984,15 +8984,15 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi there, this is Jessica from the collections department. I'm reaching out abou..." (score: 0.463); CRITICAL: "I'm really sorry to hear that. That sounds very stressful. Let’s see what we can..." (score: 0.332); CRITICAL: "I completely understand. We can discuss setting up a payment plan to make it eas..." (score: 0.438); CRITICAL: "How about we split it into three monthly payments? You could start with $175 thi..." (score: 0.359)</t>
         </is>
       </c>
     </row>
@@ -9009,12 +9009,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.448</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand, but I really need you to make some kind of payment today to avoid ..." (violation_sim: 0.554, severity_gap: 0.129)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out regarding..." (score: 0.448); CRITICAL: "I'm really sorry to hear that. I can understand how stressful that must be. We w..." (score: 0.455); CRITICAL: "Absolutely, taking your circumstances into account, we can set up a temporary pa..." (score: 0.485); CRITICAL: "I totally understand. Setting up a plan will help protect your credit. Let’s wor..." (score: 0.558)</t>
         </is>
       </c>
     </row>
@@ -9054,27 +9054,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.466</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>R003(high)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>HIGH: "That's not my concern. You think I care about your sob story? You signed a contr..." (violation_sim: 0.561, severity_gap: 0.051, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.466); CRITICAL: "I understand you're behind, but we need to find a way for you to pay this off. W..." (score: 0.517); CRITICAL: "Look, I get that, but you agreed to the terms when you signed up. We can't just ..." (score: 0.511); CRITICAL: "I hear you, but we still need payment. Can you at least pay half now? Otherwise,..." (score: 0.564)</t>
         </is>
       </c>
     </row>
@@ -9099,27 +9099,27 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.464</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>R003(high), R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>HIGH: "Hey, you're way behind on your payments. You owe us $1,500 and it's time to stop..." (violation_sim: 0.588, severity_gap: 0.008, near boundary: medium and high); HIGH: "That's not my problem. You think we care about your job situation? If you don’t ..." (violation_sim: 0.568, severity_gap: 0.065, near boundary: medium and high); MEDIUM: "Look, you signed a contract. If you don’t pay now, we will take legal action. Yo..." (violation_sim: 0.607, severity_gap: 0.071)</t>
+          <t>CRITICAL: "Hello, this is Emily from the collections department. I'm reaching out regarding..." (score: 0.464); CRITICAL: "I'm really sorry to hear that. I completely understand how difficult that must b..." (score: 0.443); CRITICAL: "I appreciate your honesty. We can set up a payment plan that fits your budget. W..." (score: 0.359); HIGH: "Great! I’ll set that up for you. You’ll receive a confirmation email shortly. Is..." (score: 0.266)</t>
         </is>
       </c>
     </row>
@@ -9139,17 +9139,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.501</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Lisa from the collections department. I wanted to talk to you about ..." (score: 0.501); CRITICAL: "I'm really sorry to hear that. It sounds tough. We definitely want to help you d..." (score: 0.451); CRITICAL: "That's completely understandable. We can set up a payment plan that can work wit..." (score: 0.451); HIGH: "Absolutely, we want to make this as easy as possible for you. I’ll send you the ..." (score: 0.234)</t>
         </is>
       </c>
     </row>
@@ -9184,17 +9184,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.424</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hello, this is Mark from the collections department. I'm calling about your past..." (score: 0.424); CRITICAL: "I understand unemployment can be tough, but you really need to pay this off. If ..." (score: 0.447); CRITICAL: "Well, if you think I can't, you might want to reconsider because we will escalat..." (score: 0.458); CRITICAL: "I get it, but you really need to prioritize this payment or things are going to ..." (score: 0.537)</t>
         </is>
       </c>
     </row>
@@ -9234,27 +9234,27 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.514</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>medium and high</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>R003(high), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>HIGH: "Listen up, you're way behind on your account. You owe us $1,500, and if you don'..." (violation_sim: 0.570, severity_gap: 0.035, near boundary: medium and high); MEDIUM: "No, this isn't a negotiation. Pay what you owe or we're sending this to collecti..." (violation_sim: 0.615, severity_gap: 0.085)</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out about your ..." (score: 0.514); CRITICAL: "I'm sorry to hear that. I understand it can be stressful. That said, we really n..." (score: 0.492); CRITICAL: "I hear you, but we really need to sort this out today to avoid any further issue..." (score: 0.378); CRITICAL: "I understand, but please know that the longer this gets put off, the harder it m..." (score: 0.372)</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.488</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R001(critical), R001(critical), R003(high)</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>MEDIUM: "I hear you, but this balance just keeps accruing. If you don’t make a payment no..." (violation_sim: 0.639, severity_gap: 0.164); MEDIUM: "Well, it could impact your credit score if this isn't resolved quickly. I recomm..." (violation_sim: 0.560, severity_gap: 0.026, near boundary: medium and high)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I'm reaching out about you..." (score: 0.488); CRITICAL: "I'm really sorry to hear that. It sounds like a challenging time for you. Would ..." (score: 0.435); CRITICAL: "Of course. We can set up a payment plan that spreads the balance over a few mont..." (score: 0.354); HIGH: "Absolutely, we can start with $100 for the first month and then adjust to $150 f..." (score: 0.278)</t>
         </is>
       </c>
     </row>
@@ -9324,12 +9324,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>0.449</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -9344,15 +9344,15 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>R004(medium)</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>MEDIUM: "Time is not on your side. If you don’t make a payment by the end of this week, w..." (violation_sim: 0.604, severity_gap: 0.088)</t>
+          <t>CRITICAL: "Hello, this is Sam from the collections department. I'm reaching out regarding y..." (score: 0.449); HIGH: "I'm really sorry to hear that. I can imagine how tough that must be. We definite..." (score: 0.285); CRITICAL: "Absolutely, I understand. One option we offer is a payment plan. We could break ..." (score: 0.366); CRITICAL: "Great! We can spread the payments over the next few months. Let’s say you start ..." (score: 0.352)</t>
         </is>
       </c>
     </row>
@@ -9369,17 +9369,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -9389,15 +9389,15 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>R004(medium), R004(medium)</t>
+          <t>R001(critical), R003(high), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>MEDIUM: "I understand your situation, but you signed the agreement. If you don’t pay this..." (violation_sim: 0.599, severity_gap: 0.053); MEDIUM: "We need full payment or this will just drag on. Honestly, if you don’t start tak..." (violation_sim: 0.619, severity_gap: 0.017)</t>
+          <t>CRITICAL: "Hello, this is Sarah from the collections department. I’m calling about your acc..." (score: 0.475); HIGH: "I’m really sorry to hear that. That must be really tough. Can you tell me a bit ..." (score: 0.291); CRITICAL: "Absolutely, I understand. We definitely want to find a solution that works for y..." (score: 0.399); CRITICAL: "That’s completely understandable. We can work together to set up a plan that’s m..." (score: 0.378)</t>
         </is>
       </c>
     </row>
@@ -9409,17 +9409,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.568</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -9434,15 +9434,15 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hey, you owe us $1,200 and you've been ignoring this for too long. When are you ..." (score: 0.568); CRITICAL: "That’s not my concern. You think your sob story is gonna change anything? If you..." (score: 0.613); CRITICAL: "Honestly, if you don’t make a payment right now, you can kiss any future loans g..." (score: 0.542)</t>
         </is>
       </c>
     </row>
@@ -9454,17 +9454,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R001(critical), R001(critical), R001(critical), R001(critical)</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CRITICAL: "Hi, this is Samantha from the collections department. I'm calling about your out..." (score: 0.494); CRITICAL: "I understand you have a balance. We really need you to make a payment right away..." (score: 0.663, near boundary: high and critical); CRITICAL: "Well, I can’t really help you if you don’t make some form of payment. The balanc..." (score: 0.582); CRITICAL: "We need full payment if you want to avoid legal complications. Waiting is just g..." (score: 0.579)</t>
         </is>
       </c>
     </row>
